--- a/Excel_profile_templates/Profile Template - CC Encounter Admission details list.xlsx
+++ b/Excel_profile_templates/Profile Template - CC Encounter Admission details list.xlsx
@@ -521,7 +521,8 @@
   <si>
     <t>Reason the encounter takes place (code)
 Binding (preferred): Reason why the encounter takes place. [Encounter Reason Codes](http://hl7.org/fhir/stu3/valueset-encounter-reason.html)
-&lt;font color='red'&gt;The Admission details encounter does not use the preferred value set but uses SNOMED CT concepts instead&lt;/font&gt;</t>
+&lt;font color='red'&gt;The Admission details encounter does not use the preferred value set but uses SNOMED CT concepts instead&lt;/font&gt;
+&lt;font color='red'&gt;&lt;b&gt;Mapping to Maternity data item = 'Reason for Admission'.&lt;/b&gt;&lt;/font&gt;</t>
   </si>
   <si>
     <t>Code defined by a terminology system
@@ -592,7 +593,7 @@
 Constraint (ext-1): Must have either extensions or value[x], not both
 &lt;font color='red'&gt;An extension to the Encounter  resource&lt;/font&gt;
 See [Admission method extension](explore_admission_details.html#mapping-for-admission-details-admission-method-extension) for information on how to populate this extension to the resource.
-&lt;font color='red'&gt;&lt;b&gt;Mapping to Maternity data item = 'Reason for Admission'.&lt;/b&gt;&lt;/font&gt; </t>
+&lt;font color='red'&gt;&lt;b&gt;Mapping to Maternity data item = 'Admission Method'.&lt;/b&gt;&lt;/font&gt; </t>
   </si>
   <si>
     <t>- - extension (dischargeMethod)</t>
@@ -790,7 +791,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="17">
+  <fonts count="15">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -859,24 +860,12 @@
       <name val="Arial"/>
     </font>
     <font>
-      <u/>
-      <sz val="8.0"/>
-      <color rgb="FF005EB8"/>
-      <name val="Arial"/>
-    </font>
-    <font>
       <sz val="12.0"/>
       <color rgb="FF333333"/>
-      <name val="&quot;docs-Helvetica Neue&quot;"/>
+      <name val="Helvetica Neue"/>
     </font>
     <font>
       <color rgb="FF474747"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="8.0"/>
-      <color rgb="FF005EB8"/>
       <name val="Helvetica Neue"/>
     </font>
   </fonts>
@@ -900,7 +889,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="18">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -910,9 +899,6 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
@@ -927,13 +913,10 @@
       <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
@@ -947,26 +930,17 @@
     <xf borderId="0" fillId="2" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
+    <xf borderId="0" fillId="2" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1025,2744 +999,2744 @@
       <c r="D1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="7" t="s">
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="6" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="9" t="s">
+      <c r="B3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="10" t="str">
+      <c r="D3" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#id","Id")</f>
         <v>Id</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="6" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="9" t="s">
+      <c r="B4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="10" t="str">
+      <c r="D4" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/resource.html#Meta","Meta")</f>
         <v>Meta</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="6" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="5" ht="15.75" hidden="1" customHeight="1">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="10" t="str">
+      <c r="B5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#uri","Uri")</f>
         <v>Uri</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="6" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="6" ht="15.75" hidden="1" customHeight="1">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="10" t="str">
+      <c r="B6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#code","Code")</f>
         <v>Code</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="10" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="7" ht="15.75" hidden="1" customHeight="1">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" s="10" t="str">
+      <c r="B7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/narrative.html#Narrative","Narrative")</f>
         <v>Narrative</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="6" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="8" ht="15.75" hidden="1" customHeight="1">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" s="10" t="str">
+      <c r="C8" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/resource.html","Resource")</f>
         <v>Resource</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="6" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="9" ht="15.75" hidden="1" customHeight="1">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" s="13" t="str">
+      <c r="B9" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="11" t="str">
         <f>HYPERLINK("https://fhir.hl7.org.uk/STU3/StructureDefinition/Extension-CareConnect-EncounterTransport-1","Extension-CareConnect-EncounterTransport-1")</f>
         <v>Extension-CareConnect-EncounterTransport-1</v>
       </c>
-      <c r="E9" s="14" t="s">
+      <c r="E9" s="12" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="10" ht="15.75" hidden="1" customHeight="1">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" s="13" t="str">
+      <c r="B10" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="11" t="str">
         <f>HYPERLINK("https://fhir.hl7.org.uk/STU3/StructureDefinition/Extension-CareConnect-OutcomeOfAttendance-1","Extension-CareConnect-OutcomeOfAttendance-1")</f>
         <v>Extension-CareConnect-OutcomeOfAttendance-1</v>
       </c>
-      <c r="E10" s="14" t="s">
+      <c r="E10" s="12" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="11" ht="15.75" hidden="1" customHeight="1">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B11" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11" s="13" t="str">
+      <c r="B11" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="11" t="str">
         <f>HYPERLINK("https://fhir.hl7.org.uk/STU3/StructureDefinition/Extension-CareConnect-EmergencyCareDischargeStatus-1","Extension-CareConnect-EmergencyCareDischargeStatus-1")</f>
         <v>Extension-CareConnect-EmergencyCareDischargeStatus-1</v>
       </c>
-      <c r="E11" s="14" t="s">
+      <c r="E11" s="12" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="12" ht="15.75" hidden="1" customHeight="1">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12" s="10" t="str">
+      <c r="C12" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/extensibility.html#Extension","Extension")</f>
         <v>Extension</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E12" s="6" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D13" s="10" t="str">
+      <c r="D13" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#identifier","Identifier")</f>
         <v>Identifier</v>
       </c>
-      <c r="E13" s="11" t="s">
+      <c r="E13" s="6" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="14" ht="15.75" hidden="1" customHeight="1">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B14" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D14" s="10" t="str">
+      <c r="B14" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#code","Code")</f>
         <v>Code</v>
       </c>
-      <c r="E14" s="12" t="s">
+      <c r="E14" s="10" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="15" ht="15.75" hidden="1" customHeight="1">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B15" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D15" s="10" t="str">
+      <c r="B15" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#codeableconcept","CodeableConcept")</f>
         <v>CodeableConcept</v>
       </c>
-      <c r="E15" s="12" t="s">
+      <c r="E15" s="10" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="16" ht="15.75" hidden="1" customHeight="1">
-      <c r="A16" s="8" t="s">
+      <c r="A16" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D16" s="10" t="str">
+      <c r="C16" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#coding","Coding")</f>
         <v>Coding</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="E16" s="6" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="17" ht="15.75" hidden="1" customHeight="1">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="B17" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D17" s="10" t="str">
+      <c r="B17" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#uri","Uri")</f>
         <v>Uri</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="E17" s="6" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="18" ht="15.75" hidden="1" customHeight="1">
-      <c r="A18" s="8" t="s">
+      <c r="A18" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="B18" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D18" s="10" t="str">
+      <c r="B18" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#string","String")</f>
         <v>String</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="E18" s="6" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="19" ht="15.75" hidden="1" customHeight="1">
-      <c r="A19" s="8" t="s">
+      <c r="A19" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="B19" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D19" s="10" t="str">
+      <c r="B19" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#code","Code")</f>
         <v>Code</v>
       </c>
-      <c r="E19" s="7" t="s">
+      <c r="E19" s="6" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="20" ht="15.75" hidden="1" customHeight="1">
-      <c r="A20" s="8" t="s">
+      <c r="A20" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B20" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D20" s="10" t="str">
+      <c r="B20" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#string","String")</f>
         <v>String</v>
       </c>
-      <c r="E20" s="7" t="s">
+      <c r="E20" s="6" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="21" ht="15.75" hidden="1" customHeight="1">
-      <c r="A21" s="8" t="s">
+      <c r="A21" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="B21" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D21" s="10" t="str">
+      <c r="B21" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#boolean","Boolean")</f>
         <v>Boolean</v>
       </c>
-      <c r="E21" s="7" t="s">
+      <c r="E21" s="6" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="22" ht="15.75" hidden="1" customHeight="1">
-      <c r="A22" s="8" t="s">
+      <c r="A22" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="B22" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D22" s="10" t="str">
+      <c r="B22" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#string","String")</f>
         <v>String</v>
       </c>
-      <c r="E22" s="7" t="s">
+      <c r="E22" s="6" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="8" t="s">
+      <c r="A23" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="C23" s="9" t="s">
+      <c r="C23" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D23" s="10" t="str">
+      <c r="D23" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#uri","Uri")</f>
         <v>Uri</v>
       </c>
-      <c r="E23" s="11" t="s">
+      <c r="E23" s="6" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="8" t="s">
+      <c r="A24" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="C24" s="9" t="s">
+      <c r="C24" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D24" s="10" t="str">
+      <c r="D24" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#string","String")</f>
         <v>String</v>
       </c>
-      <c r="E24" s="11" t="s">
+      <c r="E24" s="6" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="25" ht="15.75" hidden="1" customHeight="1">
-      <c r="A25" s="8" t="s">
+      <c r="A25" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="B25" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D25" s="10" t="str">
+      <c r="B25" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D25" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#period","Period")</f>
         <v>Period</v>
       </c>
-      <c r="E25" s="7" t="s">
+      <c r="E25" s="6" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="26" ht="15.75" hidden="1" customHeight="1">
-      <c r="A26" s="8" t="s">
+      <c r="A26" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="B26" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D26" s="10" t="str">
+      <c r="B26" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26" s="9" t="str">
         <f t="shared" ref="D26:D27" si="1">HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#datetime","dateTime")</f>
         <v>dateTime</v>
       </c>
-      <c r="E26" s="7" t="s">
+      <c r="E26" s="6" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="27" ht="15.75" hidden="1" customHeight="1">
-      <c r="A27" s="8" t="s">
+      <c r="A27" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="B27" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D27" s="10" t="str">
+      <c r="B27" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D27" s="9" t="str">
         <f t="shared" si="1"/>
         <v>dateTime</v>
       </c>
-      <c r="E27" s="7" t="s">
+      <c r="E27" s="6" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="28" ht="15.75" hidden="1" customHeight="1">
-      <c r="A28" s="8" t="s">
+      <c r="A28" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="B28" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C28" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D28" s="15" t="str">
+      <c r="B28" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D28" s="13" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/references.html","Reference")</f>
         <v>Reference</v>
       </c>
-      <c r="E28" s="7" t="s">
+      <c r="E28" s="6" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="29" ht="15.75" hidden="1" customHeight="1">
-      <c r="A29" s="8"/>
-      <c r="B29" s="6"/>
-      <c r="C29" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D29" s="13" t="str">
+      <c r="A29" s="7"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D29" s="11" t="str">
         <f>HYPERLINK("https://fhir.hl7.org.uk/STU3/StructureDefinition/CareConnect-Organization-1","CareConnect-Organization-1")</f>
         <v>CareConnect-Organization-1</v>
       </c>
-      <c r="E29" s="7"/>
+      <c r="E29" s="6"/>
     </row>
     <row r="30" ht="15.75" hidden="1" customHeight="1">
-      <c r="A30" s="8" t="s">
+      <c r="A30" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="B30" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C30" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D30" s="10" t="str">
+      <c r="B30" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D30" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#string","String")</f>
         <v>String</v>
       </c>
-      <c r="E30" s="7" t="s">
+      <c r="E30" s="6" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="31" ht="15.75" hidden="1" customHeight="1">
-      <c r="A31" s="8" t="s">
+      <c r="A31" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="B31" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C31" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D31" s="10" t="str">
+      <c r="B31" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D31" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#identifier","Identifier")</f>
         <v>Identifier</v>
       </c>
-      <c r="E31" s="7" t="s">
+      <c r="E31" s="6" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="32" ht="15.75" hidden="1" customHeight="1">
-      <c r="A32" s="8" t="s">
+      <c r="A32" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="B32" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C32" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D32" s="10" t="str">
+      <c r="B32" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D32" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#string","String")</f>
         <v>String</v>
       </c>
-      <c r="E32" s="7" t="s">
+      <c r="E32" s="6" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="8" t="s">
+      <c r="A33" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="B33" s="6" t="s">
+      <c r="B33" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="C33" s="16" t="s">
+      <c r="C33" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D33" s="10" t="str">
+      <c r="D33" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#code","Code")</f>
         <v>Code</v>
       </c>
-      <c r="E33" s="17" t="s">
+      <c r="E33" s="12" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="34" ht="15.75" hidden="1" customHeight="1">
-      <c r="A34" s="8" t="s">
+      <c r="A34" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="B34" s="6" t="s">
+      <c r="B34" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C34" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D34" s="10" t="str">
+      <c r="C34" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D34" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/backboneelement.html","BackboneElement")</f>
         <v>BackboneElement</v>
       </c>
-      <c r="E34" s="7" t="s">
+      <c r="E34" s="6" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="35" ht="15.75" hidden="1" customHeight="1">
-      <c r="A35" s="8" t="s">
+      <c r="A35" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="B35" s="6" t="s">
+      <c r="B35" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C35" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D35" s="10" t="str">
+      <c r="C35" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D35" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/extensibility.html#Extension","Extension")</f>
         <v>Extension</v>
       </c>
-      <c r="E35" s="7" t="s">
+      <c r="E35" s="6" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="36" ht="15.75" hidden="1" customHeight="1">
-      <c r="A36" s="8" t="s">
+      <c r="A36" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="B36" s="6" t="s">
+      <c r="B36" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="C36" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D36" s="10" t="str">
+      <c r="C36" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D36" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#code","Code")</f>
         <v>Code</v>
       </c>
-      <c r="E36" s="7" t="s">
+      <c r="E36" s="6" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="37" ht="15.75" hidden="1" customHeight="1">
-      <c r="A37" s="8" t="s">
+      <c r="A37" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="B37" s="6" t="s">
+      <c r="B37" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="C37" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D37" s="10" t="str">
+      <c r="C37" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D37" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#period","Period")</f>
         <v>Period</v>
       </c>
-      <c r="E37" s="7" t="s">
+      <c r="E37" s="6" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="38" ht="15.75" hidden="1" customHeight="1">
-      <c r="A38" s="8" t="s">
+      <c r="A38" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="B38" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C38" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D38" s="10" t="str">
+      <c r="B38" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D38" s="9" t="str">
         <f t="shared" ref="D38:D39" si="2">HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#datetime","dateTime")</f>
         <v>dateTime</v>
       </c>
-      <c r="E38" s="7" t="s">
+      <c r="E38" s="6" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="39" ht="15.75" hidden="1" customHeight="1">
-      <c r="A39" s="8" t="s">
+      <c r="A39" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="B39" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C39" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D39" s="10" t="str">
+      <c r="B39" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D39" s="9" t="str">
         <f t="shared" si="2"/>
         <v>dateTime</v>
       </c>
-      <c r="E39" s="7" t="s">
+      <c r="E39" s="6" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="40" ht="15.75" hidden="1" customHeight="1">
-      <c r="A40" s="8" t="s">
+      <c r="A40" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="B40" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C40" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D40" s="10" t="str">
+      <c r="B40" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D40" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#coding","Coding")</f>
         <v>Coding</v>
       </c>
-      <c r="E40" s="7" t="s">
+      <c r="E40" s="6" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="41" ht="15.75" hidden="1" customHeight="1">
-      <c r="A41" s="8" t="s">
+      <c r="A41" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="B41" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C41" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D41" s="10" t="str">
+      <c r="B41" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D41" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#uri","Uri")</f>
         <v>Uri</v>
       </c>
-      <c r="E41" s="7" t="s">
+      <c r="E41" s="6" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="42" ht="15.75" hidden="1" customHeight="1">
-      <c r="A42" s="8" t="s">
+      <c r="A42" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="B42" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C42" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D42" s="10" t="str">
+      <c r="B42" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D42" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#string","String")</f>
         <v>String</v>
       </c>
-      <c r="E42" s="7" t="s">
+      <c r="E42" s="6" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="43" ht="15.75" hidden="1" customHeight="1">
-      <c r="A43" s="8" t="s">
+      <c r="A43" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="B43" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C43" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D43" s="10" t="str">
+      <c r="B43" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D43" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#code","Code")</f>
         <v>Code</v>
       </c>
-      <c r="E43" s="7" t="s">
+      <c r="E43" s="6" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="44" ht="15.75" hidden="1" customHeight="1">
-      <c r="A44" s="8" t="s">
+      <c r="A44" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="B44" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C44" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D44" s="10" t="str">
+      <c r="B44" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D44" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#string","String")</f>
         <v>String</v>
       </c>
-      <c r="E44" s="7" t="s">
+      <c r="E44" s="6" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="45" ht="15.75" hidden="1" customHeight="1">
-      <c r="A45" s="8" t="s">
+      <c r="A45" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="B45" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C45" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D45" s="10" t="str">
+      <c r="B45" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D45" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#boolean","Boolean")</f>
         <v>Boolean</v>
       </c>
-      <c r="E45" s="7" t="s">
+      <c r="E45" s="6" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="46" ht="15.75" hidden="1" customHeight="1">
-      <c r="A46" s="8" t="s">
+      <c r="A46" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="B46" s="6" t="s">
+      <c r="B46" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C46" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D46" s="10" t="str">
+      <c r="C46" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D46" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/backboneelement.html","BackboneElement")</f>
         <v>BackboneElement</v>
       </c>
-      <c r="E46" s="7" t="s">
+      <c r="E46" s="6" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="47" ht="15.75" hidden="1" customHeight="1">
-      <c r="A47" s="8" t="s">
+      <c r="A47" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="B47" s="6" t="s">
+      <c r="B47" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C47" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D47" s="10" t="str">
+      <c r="C47" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D47" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/extensibility.html#Extension","Extension")</f>
         <v>Extension</v>
       </c>
-      <c r="E47" s="7" t="s">
+      <c r="E47" s="6" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="48" ht="15.75" hidden="1" customHeight="1">
-      <c r="A48" s="8" t="s">
+      <c r="A48" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="B48" s="6" t="s">
+      <c r="B48" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="C48" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D48" s="10" t="str">
+      <c r="C48" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D48" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#coding","Coding")</f>
         <v>Coding</v>
       </c>
-      <c r="E48" s="7" t="s">
+      <c r="E48" s="6" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="49" ht="15.75" hidden="1" customHeight="1">
-      <c r="A49" s="8" t="s">
+      <c r="A49" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="B49" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C49" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D49" s="10" t="str">
+      <c r="B49" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D49" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#uri","Uri")</f>
         <v>Uri</v>
       </c>
-      <c r="E49" s="7" t="s">
+      <c r="E49" s="6" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="50" ht="15.75" hidden="1" customHeight="1">
-      <c r="A50" s="8" t="s">
+      <c r="A50" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="B50" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C50" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D50" s="10" t="str">
+      <c r="B50" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D50" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#string","String")</f>
         <v>String</v>
       </c>
-      <c r="E50" s="7" t="s">
+      <c r="E50" s="6" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="51" ht="15.75" hidden="1" customHeight="1">
-      <c r="A51" s="8" t="s">
+      <c r="A51" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="B51" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C51" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D51" s="10" t="str">
+      <c r="B51" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D51" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#code","Code")</f>
         <v>Code</v>
       </c>
-      <c r="E51" s="7" t="s">
+      <c r="E51" s="6" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="52" ht="15.75" hidden="1" customHeight="1">
-      <c r="A52" s="8" t="s">
+      <c r="A52" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="B52" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C52" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D52" s="10" t="str">
+      <c r="B52" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D52" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#string","String")</f>
         <v>String</v>
       </c>
-      <c r="E52" s="7" t="s">
+      <c r="E52" s="6" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="53" ht="15.75" hidden="1" customHeight="1">
-      <c r="A53" s="8" t="s">
+      <c r="A53" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="B53" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C53" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D53" s="10" t="str">
+      <c r="B53" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D53" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#boolean","Boolean")</f>
         <v>Boolean</v>
       </c>
-      <c r="E53" s="7" t="s">
+      <c r="E53" s="6" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="54" ht="15.75" hidden="1" customHeight="1">
-      <c r="A54" s="8" t="s">
+      <c r="A54" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="B54" s="6" t="s">
+      <c r="B54" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="C54" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D54" s="10" t="str">
+      <c r="C54" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D54" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#period","Period")</f>
         <v>Period</v>
       </c>
-      <c r="E54" s="7" t="s">
+      <c r="E54" s="6" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="55" ht="15.75" hidden="1" customHeight="1">
-      <c r="A55" s="8" t="s">
+      <c r="A55" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="B55" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C55" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D55" s="10" t="str">
+      <c r="B55" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D55" s="9" t="str">
         <f t="shared" ref="D55:D56" si="3">HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#datetime","dateTime")</f>
         <v>dateTime</v>
       </c>
-      <c r="E55" s="7" t="s">
+      <c r="E55" s="6" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="56" ht="15.75" hidden="1" customHeight="1">
-      <c r="A56" s="8" t="s">
+      <c r="A56" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="B56" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C56" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D56" s="10" t="str">
+      <c r="B56" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D56" s="9" t="str">
         <f t="shared" si="3"/>
         <v>dateTime</v>
       </c>
-      <c r="E56" s="7" t="s">
+      <c r="E56" s="6" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="57" ht="15.75" hidden="1" customHeight="1">
-      <c r="A57" s="8" t="s">
+      <c r="A57" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="B57" s="6" t="s">
+      <c r="B57" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C57" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D57" s="10" t="str">
+      <c r="C57" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D57" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#codeableconcept","CodeableConcept")</f>
         <v>CodeableConcept</v>
       </c>
-      <c r="E57" s="11" t="s">
+      <c r="E57" s="6" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="58" ht="15.75" hidden="1" customHeight="1">
-      <c r="A58" s="8" t="s">
+      <c r="A58" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="B58" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C58" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D58" s="10" t="str">
+      <c r="B58" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C58" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D58" s="9" t="str">
         <f t="shared" ref="D58:D59" si="4">HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#coding","Coding")</f>
         <v>Coding</v>
       </c>
-      <c r="E58" s="7" t="s">
+      <c r="E58" s="6" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="59" ht="15.75" hidden="1" customHeight="1">
-      <c r="A59" s="8" t="s">
+      <c r="A59" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="B59" s="6" t="s">
+      <c r="B59" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C59" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D59" s="10" t="str">
+      <c r="C59" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D59" s="9" t="str">
         <f t="shared" si="4"/>
         <v>Coding</v>
       </c>
-      <c r="E59" s="7" t="s">
+      <c r="E59" s="6" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="60" ht="15.75" hidden="1" customHeight="1">
-      <c r="A60" s="8" t="s">
+      <c r="A60" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="B60" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C60" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D60" s="13" t="str">
+      <c r="B60" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C60" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D60" s="11" t="str">
         <f>HYPERLINK("https://fhir.hl7.org.uk/STU3/StructureDefinition/Extension-coding-sctdescid","Extension-coding-sctdescid")</f>
         <v>Extension-coding-sctdescid</v>
       </c>
-      <c r="E60" s="14" t="s">
+      <c r="E60" s="12" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="61" ht="15.75" hidden="1" customHeight="1">
-      <c r="A61" s="8" t="s">
+      <c r="A61" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="B61" s="6" t="s">
+      <c r="B61" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="C61" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D61" s="10" t="str">
+      <c r="C61" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D61" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#uri","Uri")</f>
         <v>Uri</v>
       </c>
-      <c r="E61" s="11" t="s">
+      <c r="E61" s="6" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="62" ht="15.75" hidden="1" customHeight="1">
-      <c r="A62" s="8" t="s">
+      <c r="A62" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="B62" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C62" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D62" s="10" t="str">
+      <c r="B62" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C62" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D62" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#string","String")</f>
         <v>String</v>
       </c>
-      <c r="E62" s="7" t="s">
+      <c r="E62" s="6" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="63" ht="15.75" hidden="1" customHeight="1">
-      <c r="A63" s="8" t="s">
+      <c r="A63" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="B63" s="6" t="s">
+      <c r="B63" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="C63" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D63" s="10" t="str">
+      <c r="C63" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D63" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#code","Code")</f>
         <v>Code</v>
       </c>
-      <c r="E63" s="7" t="s">
+      <c r="E63" s="6" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="64" ht="15.75" hidden="1" customHeight="1">
-      <c r="A64" s="8" t="s">
+      <c r="A64" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="B64" s="6" t="s">
+      <c r="B64" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="C64" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D64" s="10" t="str">
+      <c r="C64" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D64" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#string","String")</f>
         <v>String</v>
       </c>
-      <c r="E64" s="7" t="s">
+      <c r="E64" s="6" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="65" ht="15.75" hidden="1" customHeight="1">
-      <c r="A65" s="8" t="s">
+      <c r="A65" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="B65" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C65" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D65" s="10" t="str">
+      <c r="B65" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C65" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D65" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#boolean","Boolean")</f>
         <v>Boolean</v>
       </c>
-      <c r="E65" s="7" t="s">
+      <c r="E65" s="6" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="66" ht="15.75" hidden="1" customHeight="1">
-      <c r="A66" s="8" t="s">
+      <c r="A66" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="B66" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C66" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D66" s="10" t="str">
+      <c r="B66" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C66" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D66" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#string","String")</f>
         <v>String</v>
       </c>
-      <c r="E66" s="7" t="s">
+      <c r="E66" s="6" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="67" ht="15.75" hidden="1" customHeight="1">
-      <c r="A67" s="8" t="s">
+      <c r="A67" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="B67" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C67" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D67" s="10" t="str">
+      <c r="B67" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C67" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D67" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#codeableconcept","CodeableConcept")</f>
         <v>CodeableConcept</v>
       </c>
-      <c r="E67" s="7" t="s">
+      <c r="E67" s="6" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="68" ht="15.75" hidden="1" customHeight="1">
-      <c r="A68" s="8" t="s">
+      <c r="A68" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="B68" s="6" t="s">
+      <c r="B68" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C68" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D68" s="10" t="str">
+      <c r="C68" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D68" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#coding","Coding")</f>
         <v>Coding</v>
       </c>
-      <c r="E68" s="7" t="s">
+      <c r="E68" s="6" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="69" ht="15.75" hidden="1" customHeight="1">
-      <c r="A69" s="8" t="s">
+      <c r="A69" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="B69" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C69" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D69" s="10" t="str">
+      <c r="B69" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C69" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D69" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#uri","Uri")</f>
         <v>Uri</v>
       </c>
-      <c r="E69" s="7" t="s">
+      <c r="E69" s="6" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="70" ht="15.75" hidden="1" customHeight="1">
-      <c r="A70" s="8" t="s">
+      <c r="A70" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="B70" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C70" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D70" s="10" t="str">
+      <c r="B70" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C70" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D70" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#string","String")</f>
         <v>String</v>
       </c>
-      <c r="E70" s="7" t="s">
+      <c r="E70" s="6" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="71" ht="15.75" hidden="1" customHeight="1">
-      <c r="A71" s="8" t="s">
+      <c r="A71" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="B71" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C71" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D71" s="10" t="str">
+      <c r="B71" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C71" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D71" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#code","Code")</f>
         <v>Code</v>
       </c>
-      <c r="E71" s="7" t="s">
+      <c r="E71" s="6" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="72" ht="15.75" hidden="1" customHeight="1">
-      <c r="A72" s="8" t="s">
+      <c r="A72" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="B72" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C72" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D72" s="10" t="str">
+      <c r="B72" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C72" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D72" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#string","String")</f>
         <v>String</v>
       </c>
-      <c r="E72" s="7" t="s">
+      <c r="E72" s="6" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="73" ht="15.75" hidden="1" customHeight="1">
-      <c r="A73" s="8" t="s">
+      <c r="A73" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="B73" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C73" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D73" s="10" t="str">
+      <c r="B73" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C73" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D73" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#boolean","Boolean")</f>
         <v>Boolean</v>
       </c>
-      <c r="E73" s="7" t="s">
+      <c r="E73" s="6" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="74" ht="15.75" hidden="1" customHeight="1">
-      <c r="A74" s="8" t="s">
+      <c r="A74" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="B74" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C74" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D74" s="10" t="str">
+      <c r="B74" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C74" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D74" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#string","String")</f>
         <v>String</v>
       </c>
-      <c r="E74" s="7" t="s">
+      <c r="E74" s="6" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="75" ht="15.75" hidden="1" customHeight="1">
-      <c r="A75" s="8" t="s">
+      <c r="A75" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="B75" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C75" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D75" s="18" t="str">
+      <c r="B75" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C75" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D75" s="13" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/references.html","Reference")</f>
         <v>Reference</v>
       </c>
-      <c r="E75" s="7" t="s">
+      <c r="E75" s="6" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="76" ht="15.75" hidden="1" customHeight="1">
-      <c r="A76" s="8"/>
-      <c r="B76" s="6"/>
-      <c r="C76" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D76" s="13" t="str">
+      <c r="A76" s="7"/>
+      <c r="B76" s="5"/>
+      <c r="C76" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D76" s="11" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/STU3/group.html","Group")</f>
         <v>Group</v>
       </c>
-      <c r="E76" s="7"/>
+      <c r="E76" s="6"/>
     </row>
     <row r="77" ht="15.75" hidden="1" customHeight="1">
-      <c r="A77" s="8"/>
-      <c r="B77" s="6"/>
-      <c r="C77" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D77" s="13" t="str">
+      <c r="A77" s="7"/>
+      <c r="B77" s="5"/>
+      <c r="C77" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D77" s="11" t="str">
         <f>HYPERLINK("https://fhir.hl7.org.uk/STU3/StructureDefinition/CareConnect-Patient-1","CareConnect-Patient-1")</f>
         <v>CareConnect-Patient-1</v>
       </c>
-      <c r="E77" s="7"/>
+      <c r="E77" s="6"/>
     </row>
     <row r="78" ht="15.75" hidden="1" customHeight="1">
-      <c r="A78" s="8" t="s">
+      <c r="A78" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="B78" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C78" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D78" s="10" t="str">
+      <c r="B78" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C78" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D78" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#string","String")</f>
         <v>String</v>
       </c>
-      <c r="E78" s="7" t="s">
+      <c r="E78" s="6" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="79" ht="15.75" hidden="1" customHeight="1">
-      <c r="A79" s="8" t="s">
+      <c r="A79" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="B79" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C79" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D79" s="10" t="str">
+      <c r="B79" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C79" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D79" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#identifier","Identifier")</f>
         <v>Identifier</v>
       </c>
-      <c r="E79" s="7" t="s">
+      <c r="E79" s="6" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="80" ht="15.75" hidden="1" customHeight="1">
-      <c r="A80" s="8" t="s">
+      <c r="A80" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="B80" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C80" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D80" s="10" t="str">
+      <c r="B80" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C80" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D80" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#string","String")</f>
         <v>String</v>
       </c>
-      <c r="E80" s="7" t="s">
+      <c r="E80" s="6" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="81" ht="15.75" hidden="1" customHeight="1">
-      <c r="A81" s="8" t="s">
+      <c r="A81" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="B81" s="6" t="s">
+      <c r="B81" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C81" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D81" s="18" t="str">
+      <c r="C81" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D81" s="13" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/references.html","Reference")</f>
         <v>Reference</v>
       </c>
-      <c r="E81" s="7" t="s">
+      <c r="E81" s="6" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="82" ht="15.75" hidden="1" customHeight="1">
-      <c r="A82" s="8"/>
-      <c r="B82" s="6"/>
-      <c r="C82" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D82" s="13" t="str">
+      <c r="A82" s="7"/>
+      <c r="B82" s="5"/>
+      <c r="C82" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D82" s="11" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/StructureDefinition/EpisodeOfCare","EpisodeOfCare")</f>
         <v>EpisodeOfCare</v>
       </c>
-      <c r="E82" s="7"/>
+      <c r="E82" s="6"/>
     </row>
     <row r="83" ht="15.75" hidden="1" customHeight="1">
-      <c r="A83" s="8" t="s">
+      <c r="A83" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="B83" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C83" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D83" s="10" t="str">
+      <c r="B83" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C83" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D83" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#string","String")</f>
         <v>String</v>
       </c>
-      <c r="E83" s="7" t="s">
+      <c r="E83" s="6" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="84" ht="15.75" hidden="1" customHeight="1">
-      <c r="A84" s="8" t="s">
+      <c r="A84" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="B84" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C84" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D84" s="10" t="str">
+      <c r="B84" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C84" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D84" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#identifier","Identifier")</f>
         <v>Identifier</v>
       </c>
-      <c r="E84" s="7" t="s">
+      <c r="E84" s="6" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="85" ht="15.75" hidden="1" customHeight="1">
-      <c r="A85" s="8" t="s">
+      <c r="A85" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="B85" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C85" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D85" s="10" t="str">
+      <c r="B85" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C85" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D85" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#string","String")</f>
         <v>String</v>
       </c>
-      <c r="E85" s="7" t="s">
+      <c r="E85" s="6" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="86" ht="15.75" hidden="1" customHeight="1">
-      <c r="A86" s="8" t="s">
+      <c r="A86" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="B86" s="6" t="s">
+      <c r="B86" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C86" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D86" s="18" t="str">
+      <c r="C86" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D86" s="13" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/references.html","Reference")</f>
         <v>Reference</v>
       </c>
-      <c r="E86" s="7" t="s">
+      <c r="E86" s="6" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="87" ht="15.75" hidden="1" customHeight="1">
-      <c r="A87" s="8"/>
-      <c r="B87" s="6"/>
-      <c r="C87" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D87" s="13" t="str">
+      <c r="A87" s="7"/>
+      <c r="B87" s="5"/>
+      <c r="C87" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D87" s="11" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/StructureDefinition/ReferralRequest","ReferralRequest")</f>
         <v>ReferralRequest</v>
       </c>
-      <c r="E87" s="7"/>
+      <c r="E87" s="6"/>
     </row>
     <row r="88" ht="15.75" hidden="1" customHeight="1">
-      <c r="A88" s="8" t="s">
+      <c r="A88" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="B88" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C88" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D88" s="10" t="str">
+      <c r="B88" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C88" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D88" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#string","String")</f>
         <v>String</v>
       </c>
-      <c r="E88" s="7" t="s">
+      <c r="E88" s="6" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="89" ht="15.75" hidden="1" customHeight="1">
-      <c r="A89" s="8" t="s">
+      <c r="A89" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="B89" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C89" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D89" s="10" t="str">
+      <c r="B89" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C89" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D89" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#identifier","Identifier")</f>
         <v>Identifier</v>
       </c>
-      <c r="E89" s="7" t="s">
+      <c r="E89" s="6" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="90" ht="15.75" hidden="1" customHeight="1">
-      <c r="A90" s="8" t="s">
+      <c r="A90" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="B90" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C90" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D90" s="10" t="str">
+      <c r="B90" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C90" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D90" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#string","String")</f>
         <v>String</v>
       </c>
-      <c r="E90" s="7" t="s">
+      <c r="E90" s="6" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="91" ht="15.75" customHeight="1">
-      <c r="A91" s="8" t="s">
+      <c r="A91" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="B91" s="6" t="s">
+      <c r="B91" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C91" s="9" t="s">
+      <c r="C91" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D91" s="10" t="str">
+      <c r="D91" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/backboneelement.html","BackboneElement")</f>
         <v>BackboneElement</v>
       </c>
-      <c r="E91" s="7" t="s">
+      <c r="E91" s="6" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="92" ht="15.75" hidden="1" customHeight="1">
-      <c r="A92" s="8" t="s">
+      <c r="A92" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="B92" s="19" t="s">
+      <c r="B92" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C92" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D92" s="10" t="str">
+      <c r="C92" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D92" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/extensibility.html#Extension","Extension")</f>
         <v>Extension</v>
       </c>
-      <c r="E92" s="7" t="s">
+      <c r="E92" s="6" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="93" ht="15.75" customHeight="1">
-      <c r="A93" s="8" t="s">
+      <c r="A93" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B93" s="19" t="s">
+      <c r="B93" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="C93" s="9" t="s">
+      <c r="C93" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D93" s="10" t="str">
+      <c r="D93" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#codeableconcept","CodeableConcept")</f>
         <v>CodeableConcept</v>
       </c>
-      <c r="E93" s="11" t="s">
+      <c r="E93" s="6" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="94" ht="15.75" customHeight="1">
-      <c r="A94" s="8" t="s">
+      <c r="A94" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="B94" s="19" t="s">
+      <c r="B94" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="C94" s="9" t="s">
+      <c r="C94" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D94" s="10" t="str">
+      <c r="D94" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#coding","Coding")</f>
         <v>Coding</v>
       </c>
-      <c r="E94" s="11" t="s">
+      <c r="E94" s="6" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="95" ht="15.75" customHeight="1">
-      <c r="A95" s="8" t="s">
+      <c r="A95" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="B95" s="19" t="s">
+      <c r="B95" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="C95" s="9" t="s">
+      <c r="C95" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D95" s="10" t="str">
+      <c r="D95" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#uri","Uri")</f>
         <v>Uri</v>
       </c>
-      <c r="E95" s="11" t="s">
+      <c r="E95" s="6" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="96" ht="15.75" hidden="1" customHeight="1">
-      <c r="A96" s="8" t="s">
+      <c r="A96" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="B96" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C96" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D96" s="10" t="str">
+      <c r="B96" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C96" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D96" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#string","String")</f>
         <v>String</v>
       </c>
-      <c r="E96" s="7" t="s">
+      <c r="E96" s="6" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="97" ht="15.75" customHeight="1">
-      <c r="A97" s="8" t="s">
+      <c r="A97" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="B97" s="20" t="s">
+      <c r="B97" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="C97" s="9" t="s">
+      <c r="C97" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D97" s="10" t="str">
+      <c r="D97" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#code","Code")</f>
         <v>Code</v>
       </c>
-      <c r="E97" s="11" t="s">
+      <c r="E97" s="6" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="98" ht="15.75" customHeight="1">
-      <c r="A98" s="8" t="s">
+      <c r="A98" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B98" s="20" t="s">
+      <c r="B98" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="C98" s="9" t="s">
+      <c r="C98" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D98" s="10" t="str">
+      <c r="D98" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#string","String")</f>
         <v>String</v>
       </c>
-      <c r="E98" s="21" t="s">
+      <c r="E98" s="15" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="99" ht="15.75" hidden="1" customHeight="1">
-      <c r="A99" s="8" t="s">
+      <c r="A99" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="B99" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C99" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D99" s="10" t="str">
+      <c r="B99" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C99" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D99" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#boolean","Boolean")</f>
         <v>Boolean</v>
       </c>
-      <c r="E99" s="7" t="s">
+      <c r="E99" s="6" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="100" ht="15.75" hidden="1" customHeight="1">
-      <c r="A100" s="8" t="s">
+      <c r="A100" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="B100" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C100" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D100" s="10" t="str">
+      <c r="B100" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C100" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D100" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#string","String")</f>
         <v>String</v>
       </c>
-      <c r="E100" s="7" t="s">
+      <c r="E100" s="6" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="101" ht="15.75" hidden="1" customHeight="1">
-      <c r="A101" s="8" t="s">
+      <c r="A101" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="B101" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C101" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D101" s="10" t="str">
+      <c r="B101" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C101" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D101" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#period","Period")</f>
         <v>Period</v>
       </c>
-      <c r="E101" s="7" t="s">
+      <c r="E101" s="6" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="102" ht="15.75" hidden="1" customHeight="1">
-      <c r="A102" s="8" t="s">
+      <c r="A102" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="B102" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C102" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D102" s="10" t="str">
+      <c r="B102" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C102" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D102" s="9" t="str">
         <f t="shared" ref="D102:D103" si="5">HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#datetime","dateTime")</f>
         <v>dateTime</v>
       </c>
-      <c r="E102" s="7" t="s">
+      <c r="E102" s="6" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="103" ht="15.75" hidden="1" customHeight="1">
-      <c r="A103" s="8" t="s">
+      <c r="A103" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="B103" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C103" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D103" s="10" t="str">
+      <c r="B103" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C103" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D103" s="9" t="str">
         <f t="shared" si="5"/>
         <v>dateTime</v>
       </c>
-      <c r="E103" s="7" t="s">
+      <c r="E103" s="6" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="104" ht="15.75" customHeight="1">
-      <c r="A104" s="8" t="s">
+      <c r="A104" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="B104" s="20" t="s">
+      <c r="B104" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="C104" s="9" t="s">
+      <c r="C104" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D104" s="18" t="str">
+      <c r="D104" s="13" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/references.html","Reference")</f>
         <v>Reference</v>
       </c>
-      <c r="E104" s="11" t="s">
+      <c r="E104" s="6" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="105" ht="15.75" customHeight="1">
-      <c r="A105" s="8"/>
-      <c r="B105" s="6"/>
-      <c r="C105" s="9" t="s">
+      <c r="A105" s="7"/>
+      <c r="B105" s="5"/>
+      <c r="C105" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D105" s="13" t="str">
+      <c r="D105" s="11" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/StructureDefinition/RelatedPerson","RelatedPerson")</f>
         <v>RelatedPerson</v>
       </c>
-      <c r="E105" s="11" t="s">
+      <c r="E105" s="6" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="106" ht="15.75" customHeight="1">
-      <c r="A106" s="8"/>
-      <c r="B106" s="6"/>
-      <c r="C106" s="9" t="s">
+      <c r="A106" s="7"/>
+      <c r="B106" s="5"/>
+      <c r="C106" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D106" s="13" t="str">
+      <c r="D106" s="11" t="str">
         <f>HYPERLINK("https://fhir.hl7.org.uk/STU3/StructureDefinition/CareConnect-Practitioner-1","CareConnect-Practitioner-1")</f>
         <v>CareConnect-Practitioner-1</v>
       </c>
-      <c r="E106" s="11" t="s">
+      <c r="E106" s="6" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="107" ht="15.75" customHeight="1">
-      <c r="A107" s="8" t="s">
+      <c r="A107" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="B107" s="19" t="s">
+      <c r="B107" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="C107" s="9" t="s">
+      <c r="C107" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D107" s="10" t="str">
+      <c r="D107" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#string","String")</f>
         <v>String</v>
       </c>
-      <c r="E107" s="11" t="s">
+      <c r="E107" s="6" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="108" ht="15.75" hidden="1" customHeight="1">
-      <c r="A108" s="8" t="s">
+      <c r="A108" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="B108" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C108" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D108" s="10" t="str">
+      <c r="B108" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C108" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D108" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#identifier","Identifier")</f>
         <v>Identifier</v>
       </c>
-      <c r="E108" s="7" t="s">
+      <c r="E108" s="6" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="109" ht="15.75" hidden="1" customHeight="1">
-      <c r="A109" s="8" t="s">
+      <c r="A109" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="B109" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C109" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D109" s="10" t="str">
+      <c r="B109" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C109" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D109" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#string","String")</f>
         <v>String</v>
       </c>
-      <c r="E109" s="7" t="s">
+      <c r="E109" s="6" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="110" ht="15.75" hidden="1" customHeight="1">
-      <c r="A110" s="8" t="s">
+      <c r="A110" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="B110" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C110" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D110" s="18" t="str">
+      <c r="B110" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C110" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D110" s="13" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/references.html","Reference")</f>
         <v>Reference</v>
       </c>
-      <c r="E110" s="7" t="s">
+      <c r="E110" s="6" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="111" ht="15.75" hidden="1" customHeight="1">
-      <c r="A111" s="8"/>
-      <c r="B111" s="6"/>
-      <c r="C111" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D111" s="13" t="str">
+      <c r="A111" s="7"/>
+      <c r="B111" s="5"/>
+      <c r="C111" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D111" s="11" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/StructureDefinition/Appointment","Appointment")</f>
         <v>Appointment</v>
       </c>
-      <c r="E111" s="7"/>
+      <c r="E111" s="6"/>
     </row>
     <row r="112" ht="15.75" hidden="1" customHeight="1">
-      <c r="A112" s="8" t="s">
+      <c r="A112" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="B112" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C112" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D112" s="10" t="str">
+      <c r="B112" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C112" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D112" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#string","String")</f>
         <v>String</v>
       </c>
-      <c r="E112" s="7" t="s">
+      <c r="E112" s="6" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="113" ht="15.75" hidden="1" customHeight="1">
-      <c r="A113" s="8" t="s">
+      <c r="A113" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="B113" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C113" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D113" s="10" t="str">
+      <c r="B113" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C113" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D113" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#identifier","Identifier")</f>
         <v>Identifier</v>
       </c>
-      <c r="E113" s="7" t="s">
+      <c r="E113" s="6" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="114" ht="15.75" hidden="1" customHeight="1">
-      <c r="A114" s="8" t="s">
+      <c r="A114" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="B114" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C114" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D114" s="10" t="str">
+      <c r="B114" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C114" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D114" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#string","String")</f>
         <v>String</v>
       </c>
-      <c r="E114" s="7" t="s">
+      <c r="E114" s="6" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="115" ht="15.75" customHeight="1">
-      <c r="A115" s="8" t="s">
+      <c r="A115" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="B115" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C115" s="9" t="s">
+      <c r="B115" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C115" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D115" s="10" t="str">
+      <c r="D115" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#period","Period")</f>
         <v>Period</v>
       </c>
-      <c r="E115" s="7" t="s">
+      <c r="E115" s="6" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="116" ht="15.75" customHeight="1">
-      <c r="A116" s="8" t="s">
+      <c r="A116" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="B116" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C116" s="9" t="s">
+      <c r="B116" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C116" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D116" s="10" t="str">
+      <c r="D116" s="9" t="str">
         <f t="shared" ref="D116:D117" si="6">HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#datetime","dateTime")</f>
         <v>dateTime</v>
       </c>
-      <c r="E116" s="11" t="s">
+      <c r="E116" s="6" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="117" ht="15.75" hidden="1" customHeight="1">
-      <c r="A117" s="8" t="s">
+      <c r="A117" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="B117" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C117" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D117" s="10" t="str">
+      <c r="B117" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C117" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D117" s="9" t="str">
         <f t="shared" si="6"/>
         <v>dateTime</v>
       </c>
-      <c r="E117" s="7" t="s">
+      <c r="E117" s="6" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="118" ht="15.75" hidden="1" customHeight="1">
-      <c r="A118" s="8" t="s">
+      <c r="A118" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="B118" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C118" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D118" s="10" t="str">
+      <c r="B118" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C118" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D118" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#duration","Duration")</f>
         <v>Duration</v>
       </c>
-      <c r="E118" s="7" t="s">
+      <c r="E118" s="6" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="119" ht="15.75" hidden="1" customHeight="1">
-      <c r="A119" s="8" t="s">
+      <c r="A119" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="B119" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C119" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D119" s="10" t="str">
+      <c r="B119" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C119" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D119" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#decimal","Decimal")</f>
         <v>Decimal</v>
       </c>
-      <c r="E119" s="7" t="s">
+      <c r="E119" s="6" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="120" ht="15.75" hidden="1" customHeight="1">
-      <c r="A120" s="8" t="s">
+      <c r="A120" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="B120" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C120" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D120" s="10" t="str">
+      <c r="B120" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C120" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D120" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#code","Code")</f>
         <v>Code</v>
       </c>
-      <c r="E120" s="7" t="s">
+      <c r="E120" s="6" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="121" ht="15.75" hidden="1" customHeight="1">
-      <c r="A121" s="8" t="s">
+      <c r="A121" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="B121" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C121" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D121" s="10" t="str">
+      <c r="B121" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C121" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D121" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#string","String")</f>
         <v>String</v>
       </c>
-      <c r="E121" s="7" t="s">
+      <c r="E121" s="6" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="122" ht="15.75" hidden="1" customHeight="1">
-      <c r="A122" s="8" t="s">
+      <c r="A122" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="B122" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C122" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D122" s="10" t="str">
+      <c r="B122" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C122" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D122" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#uri","Uri")</f>
         <v>Uri</v>
       </c>
-      <c r="E122" s="7" t="s">
+      <c r="E122" s="6" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="123" ht="15.75" hidden="1" customHeight="1">
-      <c r="A123" s="8" t="s">
+      <c r="A123" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="B123" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C123" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D123" s="10" t="str">
+      <c r="B123" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C123" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D123" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#code","Code")</f>
         <v>Code</v>
       </c>
-      <c r="E123" s="7" t="s">
+      <c r="E123" s="6" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="124" ht="15.75" customHeight="1">
-      <c r="A124" s="8" t="s">
+      <c r="A124" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="B124" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="C124" s="9" t="s">
+      <c r="B124" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C124" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D124" s="10" t="str">
+      <c r="D124" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#codeableconcept","CodeableConcept")</f>
         <v>CodeableConcept</v>
       </c>
-      <c r="E124" s="11" t="s">
+      <c r="E124" s="16" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="125" ht="15.75" hidden="1" customHeight="1">
-      <c r="A125" s="8" t="s">
+      <c r="A125" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="B125" s="19" t="s">
+      <c r="B125" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C125" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D125" s="10" t="str">
+      <c r="C125" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D125" s="9" t="str">
         <f t="shared" ref="D125:D126" si="7">HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#coding","Coding")</f>
         <v>Coding</v>
       </c>
-      <c r="E125" s="7" t="s">
+      <c r="E125" s="6" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="126" ht="15.75" customHeight="1">
-      <c r="A126" s="8" t="s">
+      <c r="A126" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="B126" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C126" s="9" t="s">
+      <c r="B126" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C126" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D126" s="10" t="str">
+      <c r="D126" s="9" t="str">
         <f t="shared" si="7"/>
         <v>Coding</v>
       </c>
-      <c r="E126" s="11" t="s">
+      <c r="E126" s="6" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="127" ht="15.75" hidden="1" customHeight="1">
-      <c r="A127" s="8" t="s">
+      <c r="A127" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="B127" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C127" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D127" s="13" t="str">
+      <c r="B127" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C127" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D127" s="11" t="str">
         <f>HYPERLINK("https://fhir.hl7.org.uk/STU3/StructureDefinition/Extension-coding-sctdescid","Extension-coding-sctdescid")</f>
         <v>Extension-coding-sctdescid</v>
       </c>
-      <c r="E127" s="14" t="s">
+      <c r="E127" s="12" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="128" ht="15.75" customHeight="1">
-      <c r="A128" s="8" t="s">
+      <c r="A128" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="B128" s="6" t="s">
+      <c r="B128" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="C128" s="9" t="s">
+      <c r="C128" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D128" s="10" t="str">
+      <c r="D128" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#uri","Uri")</f>
         <v>Uri</v>
       </c>
-      <c r="E128" s="7" t="s">
+      <c r="E128" s="6" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="129" ht="15.75" hidden="1" customHeight="1">
-      <c r="A129" s="8" t="s">
+      <c r="A129" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="B129" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C129" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D129" s="10" t="str">
+      <c r="B129" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C129" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D129" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#string","String")</f>
         <v>String</v>
       </c>
-      <c r="E129" s="7" t="s">
+      <c r="E129" s="6" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="130" ht="15.75" customHeight="1">
-      <c r="A130" s="8" t="s">
+      <c r="A130" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="B130" s="6" t="s">
+      <c r="B130" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="C130" s="9" t="s">
+      <c r="C130" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D130" s="10" t="str">
+      <c r="D130" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#code","Code")</f>
         <v>Code</v>
       </c>
-      <c r="E130" s="11" t="s">
+      <c r="E130" s="6" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="131" ht="15.75" customHeight="1">
-      <c r="A131" s="8" t="s">
+      <c r="A131" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="B131" s="6" t="s">
+      <c r="B131" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="C131" s="9" t="s">
+      <c r="C131" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D131" s="10" t="str">
+      <c r="D131" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#string","String")</f>
         <v>String</v>
       </c>
-      <c r="E131" s="11" t="s">
+      <c r="E131" s="6" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="132" ht="15.75" hidden="1" customHeight="1">
-      <c r="A132" s="8" t="s">
+      <c r="A132" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="B132" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C132" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D132" s="10" t="str">
+      <c r="B132" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C132" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D132" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#boolean","Boolean")</f>
         <v>Boolean</v>
       </c>
-      <c r="E132" s="7" t="s">
+      <c r="E132" s="6" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="133" ht="15.75" customHeight="1">
-      <c r="A133" s="8" t="s">
+      <c r="A133" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="B133" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C133" s="9" t="s">
+      <c r="B133" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C133" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D133" s="10" t="str">
+      <c r="D133" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#string","String")</f>
         <v>String</v>
       </c>
-      <c r="E133" s="11" t="s">
+      <c r="E133" s="6" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="134" ht="15.75" hidden="1" customHeight="1">
-      <c r="A134" s="8" t="s">
+      <c r="A134" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="B134" s="6" t="s">
+      <c r="B134" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C134" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D134" s="10" t="str">
+      <c r="C134" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D134" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/backboneelement.html","BackboneElement")</f>
         <v>BackboneElement</v>
       </c>
-      <c r="E134" s="7" t="s">
+      <c r="E134" s="6" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="135" ht="15.75" hidden="1" customHeight="1">
-      <c r="A135" s="8" t="s">
+      <c r="A135" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="B135" s="6" t="s">
+      <c r="B135" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C135" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D135" s="10" t="str">
+      <c r="C135" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D135" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/extensibility.html#Extension","Extension")</f>
         <v>Extension</v>
       </c>
-      <c r="E135" s="7" t="s">
+      <c r="E135" s="6" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="136" ht="15.75" hidden="1" customHeight="1">
-      <c r="A136" s="8" t="s">
+      <c r="A136" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="B136" s="6" t="s">
+      <c r="B136" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="C136" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D136" s="18" t="str">
+      <c r="C136" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D136" s="13" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/references.html","Reference")</f>
         <v>Reference</v>
       </c>
-      <c r="E136" s="7" t="s">
+      <c r="E136" s="6" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="137" ht="15.75" hidden="1" customHeight="1">
-      <c r="A137" s="8"/>
-      <c r="B137" s="6"/>
-      <c r="C137" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D137" s="13" t="str">
+      <c r="A137" s="7"/>
+      <c r="B137" s="5"/>
+      <c r="C137" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D137" s="11" t="str">
         <f>HYPERLINK("https://fhir.hl7.org.uk/STU3/StructureDefinition/CareConnect-Procedure-1","CareConnect-Procedure-1")</f>
         <v>CareConnect-Procedure-1</v>
       </c>
-      <c r="E137" s="7"/>
+      <c r="E137" s="6"/>
     </row>
     <row r="138" ht="15.75" hidden="1" customHeight="1">
-      <c r="A138" s="8"/>
-      <c r="B138" s="6"/>
-      <c r="C138" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D138" s="13" t="str">
+      <c r="A138" s="7"/>
+      <c r="B138" s="5"/>
+      <c r="C138" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D138" s="11" t="str">
         <f>HYPERLINK("https://fhir.hl7.org.uk/STU3/StructureDefinition/CareConnect-Condition-1","CareConnect-Condition-1")</f>
         <v>CareConnect-Condition-1</v>
       </c>
-      <c r="E138" s="7"/>
+      <c r="E138" s="6"/>
     </row>
     <row r="139" ht="15.75" hidden="1" customHeight="1">
-      <c r="A139" s="8" t="s">
+      <c r="A139" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="B139" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C139" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D139" s="10" t="str">
+      <c r="B139" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C139" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D139" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#string","String")</f>
         <v>String</v>
       </c>
-      <c r="E139" s="7" t="s">
+      <c r="E139" s="6" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="140" ht="15.75" hidden="1" customHeight="1">
-      <c r="A140" s="8" t="s">
+      <c r="A140" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="B140" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C140" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D140" s="10" t="str">
+      <c r="B140" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C140" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D140" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#identifier","Identifier")</f>
         <v>Identifier</v>
       </c>
-      <c r="E140" s="7" t="s">
+      <c r="E140" s="6" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="141" ht="15.75" hidden="1" customHeight="1">
-      <c r="A141" s="8" t="s">
+      <c r="A141" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="B141" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C141" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D141" s="10" t="str">
+      <c r="B141" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C141" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D141" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#string","String")</f>
         <v>String</v>
       </c>
-      <c r="E141" s="7" t="s">
+      <c r="E141" s="6" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="142" ht="15.75" hidden="1" customHeight="1">
-      <c r="A142" s="8" t="s">
+      <c r="A142" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="B142" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C142" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D142" s="10" t="str">
+      <c r="B142" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C142" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D142" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#codeableconcept","CodeableConcept")</f>
         <v>CodeableConcept</v>
       </c>
-      <c r="E142" s="7" t="s">
+      <c r="E142" s="6" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="143" ht="15.75" hidden="1" customHeight="1">
-      <c r="A143" s="8" t="s">
+      <c r="A143" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="B143" s="6" t="s">
+      <c r="B143" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C143" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D143" s="10" t="str">
+      <c r="C143" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D143" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#coding","Coding")</f>
         <v>Coding</v>
       </c>
-      <c r="E143" s="7" t="s">
+      <c r="E143" s="6" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="144" ht="15.75" hidden="1" customHeight="1">
-      <c r="A144" s="8" t="s">
+      <c r="A144" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="B144" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C144" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D144" s="10" t="str">
+      <c r="B144" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C144" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D144" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#uri","Uri")</f>
         <v>Uri</v>
       </c>
-      <c r="E144" s="7" t="s">
+      <c r="E144" s="6" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="145" ht="15.75" hidden="1" customHeight="1">
-      <c r="A145" s="8" t="s">
+      <c r="A145" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="B145" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C145" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D145" s="10" t="str">
+      <c r="B145" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C145" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D145" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#string","String")</f>
         <v>String</v>
       </c>
-      <c r="E145" s="7" t="s">
+      <c r="E145" s="6" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="146" ht="15.75" hidden="1" customHeight="1">
-      <c r="A146" s="8" t="s">
+      <c r="A146" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="B146" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C146" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D146" s="10" t="str">
+      <c r="B146" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C146" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D146" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#code","Code")</f>
         <v>Code</v>
       </c>
-      <c r="E146" s="7" t="s">
+      <c r="E146" s="6" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="147" ht="15.75" hidden="1" customHeight="1">
-      <c r="A147" s="8" t="s">
+      <c r="A147" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B147" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C147" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D147" s="10" t="str">
+      <c r="B147" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C147" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D147" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#string","String")</f>
         <v>String</v>
       </c>
-      <c r="E147" s="7" t="s">
+      <c r="E147" s="6" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="148" ht="15.75" hidden="1" customHeight="1">
-      <c r="A148" s="8" t="s">
+      <c r="A148" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="B148" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C148" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D148" s="10" t="str">
+      <c r="B148" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C148" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D148" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#boolean","Boolean")</f>
         <v>Boolean</v>
       </c>
-      <c r="E148" s="7" t="s">
+      <c r="E148" s="6" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="149" ht="15.75" hidden="1" customHeight="1">
-      <c r="A149" s="8" t="s">
+      <c r="A149" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="B149" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C149" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D149" s="10" t="str">
+      <c r="B149" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C149" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D149" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#string","String")</f>
         <v>String</v>
       </c>
-      <c r="E149" s="7" t="s">
+      <c r="E149" s="6" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="150" ht="15.75" hidden="1" customHeight="1">
-      <c r="A150" s="8" t="s">
+      <c r="A150" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="B150" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C150" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D150" s="10" t="str">
+      <c r="B150" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C150" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D150" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#positiveint","positiveInt")</f>
         <v>positiveInt</v>
       </c>
-      <c r="E150" s="7" t="s">
+      <c r="E150" s="6" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="151" ht="15.75" hidden="1" customHeight="1">
-      <c r="A151" s="8" t="s">
+      <c r="A151" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="B151" s="6" t="s">
+      <c r="B151" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C151" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D151" s="18" t="str">
+      <c r="C151" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D151" s="13" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/references.html","Reference")</f>
         <v>Reference</v>
       </c>
-      <c r="E151" s="7" t="s">
+      <c r="E151" s="6" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="152" ht="15.75" hidden="1" customHeight="1">
-      <c r="A152" s="8"/>
-      <c r="B152" s="6"/>
-      <c r="C152" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D152" s="22" t="str">
+      <c r="A152" s="7"/>
+      <c r="B152" s="5"/>
+      <c r="C152" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D152" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/StructureDefinition/Account","Account")</f>
         <v>Account</v>
       </c>
-      <c r="E152" s="7"/>
+      <c r="E152" s="6"/>
     </row>
     <row r="153" ht="15.75" hidden="1" customHeight="1">
-      <c r="A153" s="8" t="s">
+      <c r="A153" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="B153" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C153" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D153" s="10" t="str">
+      <c r="B153" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C153" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D153" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#string","String")</f>
         <v>String</v>
       </c>
-      <c r="E153" s="7" t="s">
+      <c r="E153" s="6" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="154" ht="15.75" hidden="1" customHeight="1">
-      <c r="A154" s="8" t="s">
+      <c r="A154" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="B154" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C154" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D154" s="10" t="str">
+      <c r="B154" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C154" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D154" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#identifier","Identifier")</f>
         <v>Identifier</v>
       </c>
-      <c r="E154" s="7" t="s">
+      <c r="E154" s="6" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="155" ht="15.75" hidden="1" customHeight="1">
-      <c r="A155" s="8" t="s">
+      <c r="A155" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="B155" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C155" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D155" s="10" t="str">
+      <c r="B155" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C155" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D155" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#string","String")</f>
         <v>String</v>
       </c>
-      <c r="E155" s="7" t="s">
+      <c r="E155" s="6" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="156" ht="15.75" customHeight="1">
-      <c r="A156" s="8" t="s">
+      <c r="A156" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="B156" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C156" s="9" t="s">
+      <c r="B156" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C156" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D156" s="10" t="str">
+      <c r="D156" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/backboneelement.html","BackboneElement")</f>
         <v>BackboneElement</v>
       </c>
-      <c r="E156" s="7" t="s">
+      <c r="E156" s="6" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="157" ht="15.75" customHeight="1">
-      <c r="A157" s="8" t="s">
+      <c r="A157" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="B157" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C157" s="9" t="s">
+      <c r="B157" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C157" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D157" s="13" t="str">
+      <c r="D157" s="11" t="str">
         <f>HYPERLINK("https://fhir.hl7.org.uk/STU3/StructureDefinition/Extension-CareConnect-AdmissionMethod-1","Extension-CareConnect-AdmissionMethod-1")</f>
         <v>Extension-CareConnect-AdmissionMethod-1</v>
       </c>
@@ -3771,1822 +3745,1822 @@
       </c>
     </row>
     <row r="158" ht="15.75" hidden="1" customHeight="1">
-      <c r="A158" s="8" t="s">
+      <c r="A158" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="B158" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C158" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D158" s="13" t="str">
+      <c r="B158" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C158" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D158" s="11" t="str">
         <f>HYPERLINK("https://fhir.hl7.org.uk/STU3/StructureDefinition/Extension-CareConnect-DischargeMethod-1","Extension-CareConnect-DischargeMethod-1")</f>
         <v>Extension-CareConnect-DischargeMethod-1</v>
       </c>
-      <c r="E158" s="17" t="s">
+      <c r="E158" s="12" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="159" ht="15.75" hidden="1" customHeight="1">
-      <c r="A159" s="8" t="s">
+      <c r="A159" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="B159" s="6" t="s">
+      <c r="B159" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C159" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D159" s="10" t="str">
+      <c r="C159" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D159" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/extensibility.html#Extension","Extension")</f>
         <v>Extension</v>
       </c>
-      <c r="E159" s="7" t="s">
+      <c r="E159" s="6" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="160" ht="15.75" hidden="1" customHeight="1">
-      <c r="A160" s="8" t="s">
+      <c r="A160" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="B160" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C160" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D160" s="10" t="str">
+      <c r="B160" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C160" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D160" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#identifier","Identifier")</f>
         <v>Identifier</v>
       </c>
-      <c r="E160" s="7" t="s">
+      <c r="E160" s="6" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="161" ht="15.75" hidden="1" customHeight="1">
-      <c r="A161" s="8" t="s">
+      <c r="A161" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="B161" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C161" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D161" s="10" t="str">
+      <c r="B161" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C161" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D161" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#code","Code")</f>
         <v>Code</v>
       </c>
-      <c r="E161" s="7" t="s">
+      <c r="E161" s="6" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="162" ht="15.75" hidden="1" customHeight="1">
-      <c r="A162" s="8" t="s">
+      <c r="A162" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="B162" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C162" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D162" s="10" t="str">
+      <c r="B162" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C162" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D162" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#codeableconcept","CodeableConcept")</f>
         <v>CodeableConcept</v>
       </c>
-      <c r="E162" s="7" t="s">
+      <c r="E162" s="6" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="163" ht="15.75" hidden="1" customHeight="1">
-      <c r="A163" s="8" t="s">
+      <c r="A163" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="B163" s="6" t="s">
+      <c r="B163" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C163" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D163" s="10" t="str">
+      <c r="C163" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D163" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#coding","Coding")</f>
         <v>Coding</v>
       </c>
-      <c r="E163" s="7" t="s">
+      <c r="E163" s="6" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="164" ht="15.75" hidden="1" customHeight="1">
-      <c r="A164" s="8" t="s">
+      <c r="A164" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="B164" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C164" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D164" s="10" t="str">
+      <c r="B164" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C164" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D164" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#uri","Uri")</f>
         <v>Uri</v>
       </c>
-      <c r="E164" s="7" t="s">
+      <c r="E164" s="6" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="165" ht="15.75" hidden="1" customHeight="1">
-      <c r="A165" s="8" t="s">
+      <c r="A165" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="B165" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C165" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D165" s="10" t="str">
+      <c r="B165" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C165" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D165" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#string","String")</f>
         <v>String</v>
       </c>
-      <c r="E165" s="7" t="s">
+      <c r="E165" s="6" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="166" ht="15.75" hidden="1" customHeight="1">
-      <c r="A166" s="8" t="s">
+      <c r="A166" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="B166" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C166" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D166" s="10" t="str">
+      <c r="B166" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C166" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D166" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#code","Code")</f>
         <v>Code</v>
       </c>
-      <c r="E166" s="7" t="s">
+      <c r="E166" s="6" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="167" ht="15.75" hidden="1" customHeight="1">
-      <c r="A167" s="8" t="s">
+      <c r="A167" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="B167" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C167" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D167" s="10" t="str">
+      <c r="B167" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C167" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D167" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#string","String")</f>
         <v>String</v>
       </c>
-      <c r="E167" s="7" t="s">
+      <c r="E167" s="6" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="168" ht="15.75" hidden="1" customHeight="1">
-      <c r="A168" s="8" t="s">
+      <c r="A168" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="B168" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C168" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D168" s="10" t="str">
+      <c r="B168" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C168" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D168" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#boolean","Boolean")</f>
         <v>Boolean</v>
       </c>
-      <c r="E168" s="7" t="s">
+      <c r="E168" s="6" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="169" ht="15.75" hidden="1" customHeight="1">
-      <c r="A169" s="8" t="s">
+      <c r="A169" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="B169" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C169" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D169" s="10" t="str">
+      <c r="B169" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C169" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D169" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#string","String")</f>
         <v>String</v>
       </c>
-      <c r="E169" s="7" t="s">
+      <c r="E169" s="6" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="170" ht="15.75" hidden="1" customHeight="1">
-      <c r="A170" s="8" t="s">
+      <c r="A170" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="B170" s="6" t="s">
+      <c r="B170" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="C170" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D170" s="10" t="str">
+      <c r="C170" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D170" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#uri","Uri")</f>
         <v>Uri</v>
       </c>
-      <c r="E170" s="7" t="s">
+      <c r="E170" s="6" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="171" ht="15.75" hidden="1" customHeight="1">
-      <c r="A171" s="8" t="s">
+      <c r="A171" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="B171" s="6" t="s">
+      <c r="B171" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="C171" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D171" s="10" t="str">
+      <c r="C171" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D171" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#string","String")</f>
         <v>String</v>
       </c>
-      <c r="E171" s="7" t="s">
+      <c r="E171" s="6" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="172" ht="15.75" hidden="1" customHeight="1">
-      <c r="A172" s="8" t="s">
+      <c r="A172" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="B172" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C172" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D172" s="10" t="str">
+      <c r="B172" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C172" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D172" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#period","Period")</f>
         <v>Period</v>
       </c>
-      <c r="E172" s="7" t="s">
+      <c r="E172" s="6" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="173" ht="15.75" hidden="1" customHeight="1">
-      <c r="A173" s="8" t="s">
+      <c r="A173" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="B173" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C173" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D173" s="10" t="str">
+      <c r="B173" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C173" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D173" s="9" t="str">
         <f t="shared" ref="D173:D174" si="8">HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#datetime","dateTime")</f>
         <v>dateTime</v>
       </c>
-      <c r="E173" s="7" t="s">
+      <c r="E173" s="6" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="174" ht="15.75" hidden="1" customHeight="1">
-      <c r="A174" s="8" t="s">
+      <c r="A174" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="B174" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C174" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D174" s="10" t="str">
+      <c r="B174" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C174" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D174" s="9" t="str">
         <f t="shared" si="8"/>
         <v>dateTime</v>
       </c>
-      <c r="E174" s="7" t="s">
+      <c r="E174" s="6" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="175" ht="15.75" hidden="1" customHeight="1">
-      <c r="A175" s="8" t="s">
+      <c r="A175" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="B175" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C175" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D175" s="18" t="str">
+      <c r="B175" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C175" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D175" s="13" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/references.html","Reference")</f>
         <v>Reference</v>
       </c>
-      <c r="E175" s="7" t="s">
+      <c r="E175" s="6" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="176" ht="15.75" hidden="1" customHeight="1">
-      <c r="A176" s="8"/>
-      <c r="B176" s="6"/>
-      <c r="C176" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D176" s="13" t="str">
+      <c r="A176" s="7"/>
+      <c r="B176" s="5"/>
+      <c r="C176" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D176" s="11" t="str">
         <f>HYPERLINK("https://fhir.hl7.org.uk/STU3/StructureDefinition/CareConnect-Organization-1","CareConnect-Organization-1")</f>
         <v>CareConnect-Organization-1</v>
       </c>
-      <c r="E176" s="7"/>
+      <c r="E176" s="6"/>
     </row>
     <row r="177" ht="15.75" hidden="1" customHeight="1">
-      <c r="A177" s="8" t="s">
+      <c r="A177" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="B177" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C177" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D177" s="10" t="str">
+      <c r="B177" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C177" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D177" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#string","String")</f>
         <v>String</v>
       </c>
-      <c r="E177" s="7" t="s">
+      <c r="E177" s="6" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="178" ht="15.75" hidden="1" customHeight="1">
-      <c r="A178" s="8" t="s">
+      <c r="A178" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="B178" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C178" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D178" s="10" t="str">
+      <c r="B178" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C178" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D178" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#identifier","Identifier")</f>
         <v>Identifier</v>
       </c>
-      <c r="E178" s="7" t="s">
+      <c r="E178" s="6" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="179" ht="15.75" hidden="1" customHeight="1">
-      <c r="A179" s="8" t="s">
+      <c r="A179" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B179" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C179" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D179" s="10" t="str">
+      <c r="B179" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C179" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D179" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#string","String")</f>
         <v>String</v>
       </c>
-      <c r="E179" s="7" t="s">
+      <c r="E179" s="6" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="180" ht="15.75" hidden="1" customHeight="1">
-      <c r="A180" s="8" t="s">
+      <c r="A180" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="B180" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C180" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D180" s="18" t="str">
+      <c r="B180" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C180" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D180" s="13" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/references.html","Reference")</f>
         <v>Reference</v>
       </c>
-      <c r="E180" s="7" t="s">
+      <c r="E180" s="6" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="181" ht="15.75" hidden="1" customHeight="1">
-      <c r="A181" s="8"/>
-      <c r="B181" s="6"/>
-      <c r="C181" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D181" s="13" t="str">
+      <c r="A181" s="7"/>
+      <c r="B181" s="5"/>
+      <c r="C181" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D181" s="11" t="str">
         <f>HYPERLINK("https://fhir.hl7.org.uk/STU3/StructureDefinition/CareConnect-Location-1","CareConnect-Location-1")</f>
         <v>CareConnect-Location-1</v>
       </c>
-      <c r="E181" s="7"/>
+      <c r="E181" s="6"/>
     </row>
     <row r="182" ht="15.75" hidden="1" customHeight="1">
-      <c r="A182" s="8" t="s">
+      <c r="A182" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="B182" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C182" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D182" s="10" t="str">
+      <c r="B182" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C182" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D182" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#string","String")</f>
         <v>String</v>
       </c>
-      <c r="E182" s="7" t="s">
+      <c r="E182" s="6" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="183" ht="15.75" hidden="1" customHeight="1">
-      <c r="A183" s="8" t="s">
+      <c r="A183" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="B183" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C183" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D183" s="10" t="str">
+      <c r="B183" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C183" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D183" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#identifier","Identifier")</f>
         <v>Identifier</v>
       </c>
-      <c r="E183" s="7" t="s">
+      <c r="E183" s="6" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="184" ht="15.75" hidden="1" customHeight="1">
-      <c r="A184" s="8" t="s">
+      <c r="A184" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="B184" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C184" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D184" s="10" t="str">
+      <c r="B184" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C184" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D184" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#string","String")</f>
         <v>String</v>
       </c>
-      <c r="E184" s="7" t="s">
+      <c r="E184" s="6" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="185" ht="15.75" customHeight="1">
-      <c r="A185" s="8" t="s">
+      <c r="A185" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="B185" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C185" s="9" t="s">
+      <c r="B185" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C185" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D185" s="10" t="str">
+      <c r="D185" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#codeableconcept","CodeableConcept")</f>
         <v>CodeableConcept</v>
       </c>
-      <c r="E185" s="11" t="s">
+      <c r="E185" s="6" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="186" ht="15.75" customHeight="1">
-      <c r="A186" s="8" t="s">
+      <c r="A186" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="B186" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="C186" s="9" t="s">
+      <c r="B186" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C186" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D186" s="10" t="str">
+      <c r="D186" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#coding","Coding")</f>
         <v>Coding</v>
       </c>
-      <c r="E186" s="7" t="s">
+      <c r="E186" s="6" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="187" ht="15.75" customHeight="1">
-      <c r="A187" s="8" t="s">
+      <c r="A187" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="B187" s="19" t="s">
+      <c r="B187" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="C187" s="9" t="s">
+      <c r="C187" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D187" s="10" t="str">
+      <c r="D187" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#uri","Uri")</f>
         <v>Uri</v>
       </c>
-      <c r="E187" s="7" t="s">
+      <c r="E187" s="6" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="188" ht="15.75" hidden="1" customHeight="1">
-      <c r="A188" s="8" t="s">
+      <c r="A188" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="B188" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C188" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D188" s="10" t="str">
+      <c r="B188" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C188" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D188" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#string","String")</f>
         <v>String</v>
       </c>
-      <c r="E188" s="7" t="s">
+      <c r="E188" s="6" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="189" ht="15.75" customHeight="1">
-      <c r="A189" s="8" t="s">
+      <c r="A189" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="B189" s="19" t="s">
+      <c r="B189" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="C189" s="9" t="s">
+      <c r="C189" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D189" s="10" t="str">
+      <c r="D189" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#code","Code")</f>
         <v>Code</v>
       </c>
-      <c r="E189" s="11" t="s">
+      <c r="E189" s="6" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="190" ht="15.75" customHeight="1">
-      <c r="A190" s="8" t="s">
+      <c r="A190" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B190" s="19" t="s">
+      <c r="B190" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="C190" s="9" t="s">
+      <c r="C190" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D190" s="10" t="str">
+      <c r="D190" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#string","String")</f>
         <v>String</v>
       </c>
-      <c r="E190" s="11" t="s">
+      <c r="E190" s="6" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="191" ht="15.75" hidden="1" customHeight="1">
-      <c r="A191" s="8" t="s">
+      <c r="A191" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="B191" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C191" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D191" s="10" t="str">
+      <c r="B191" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C191" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D191" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#boolean","Boolean")</f>
         <v>Boolean</v>
       </c>
-      <c r="E191" s="7" t="s">
+      <c r="E191" s="6" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="192" ht="15.75" hidden="1" customHeight="1">
-      <c r="A192" s="8" t="s">
+      <c r="A192" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="B192" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C192" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D192" s="10" t="str">
+      <c r="B192" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C192" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D192" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#string","String")</f>
         <v>String</v>
       </c>
-      <c r="E192" s="11" t="s">
+      <c r="E192" s="6" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="193" ht="15.75" hidden="1" customHeight="1">
-      <c r="A193" s="8" t="s">
+      <c r="A193" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="B193" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C193" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D193" s="10" t="str">
+      <c r="B193" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C193" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D193" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#codeableconcept","CodeableConcept")</f>
         <v>CodeableConcept</v>
       </c>
-      <c r="E193" s="7" t="s">
+      <c r="E193" s="6" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="194" ht="15.75" hidden="1" customHeight="1">
-      <c r="A194" s="8" t="s">
+      <c r="A194" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="B194" s="6" t="s">
+      <c r="B194" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C194" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D194" s="10" t="str">
+      <c r="C194" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D194" s="9" t="str">
         <f t="shared" ref="D194:D195" si="9">HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#coding","Coding")</f>
         <v>Coding</v>
       </c>
-      <c r="E194" s="7" t="s">
+      <c r="E194" s="6" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="195" ht="15.75" hidden="1" customHeight="1">
-      <c r="A195" s="8" t="s">
+      <c r="A195" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="B195" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C195" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D195" s="10" t="str">
+      <c r="B195" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C195" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D195" s="9" t="str">
         <f t="shared" si="9"/>
         <v>Coding</v>
       </c>
-      <c r="E195" s="7" t="s">
+      <c r="E195" s="6" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="196" ht="15.75" hidden="1" customHeight="1">
-      <c r="A196" s="8" t="s">
+      <c r="A196" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="B196" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C196" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D196" s="13" t="str">
+      <c r="B196" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C196" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D196" s="11" t="str">
         <f>HYPERLINK("https://fhir.hl7.org.uk/STU3/StructureDefinition/Extension-coding-sctdescid","Extension-coding-sctdescid")</f>
         <v>Extension-coding-sctdescid</v>
       </c>
-      <c r="E196" s="14" t="s">
+      <c r="E196" s="12" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="197" ht="15.75" hidden="1" customHeight="1">
-      <c r="A197" s="8" t="s">
+      <c r="A197" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="B197" s="6" t="s">
+      <c r="B197" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="C197" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D197" s="10" t="str">
+      <c r="C197" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D197" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#uri","Uri")</f>
         <v>Uri</v>
       </c>
-      <c r="E197" s="7" t="s">
+      <c r="E197" s="6" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="198" ht="15.75" hidden="1" customHeight="1">
-      <c r="A198" s="8" t="s">
+      <c r="A198" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="B198" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C198" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D198" s="10" t="str">
+      <c r="B198" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C198" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D198" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#string","String")</f>
         <v>String</v>
       </c>
-      <c r="E198" s="7" t="s">
+      <c r="E198" s="6" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="199" ht="15.75" hidden="1" customHeight="1">
-      <c r="A199" s="8" t="s">
+      <c r="A199" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="B199" s="6" t="s">
+      <c r="B199" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="C199" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D199" s="10" t="str">
+      <c r="C199" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D199" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#code","Code")</f>
         <v>Code</v>
       </c>
-      <c r="E199" s="7" t="s">
+      <c r="E199" s="6" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="200" ht="15.75" hidden="1" customHeight="1">
-      <c r="A200" s="8" t="s">
+      <c r="A200" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B200" s="6" t="s">
+      <c r="B200" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="C200" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D200" s="10" t="str">
+      <c r="C200" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D200" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#string","String")</f>
         <v>String</v>
       </c>
-      <c r="E200" s="7" t="s">
+      <c r="E200" s="6" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="201" ht="15.75" hidden="1" customHeight="1">
-      <c r="A201" s="8" t="s">
+      <c r="A201" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="B201" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C201" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D201" s="10" t="str">
+      <c r="B201" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C201" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D201" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#boolean","Boolean")</f>
         <v>Boolean</v>
       </c>
-      <c r="E201" s="7" t="s">
+      <c r="E201" s="6" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="202" ht="15.75" hidden="1" customHeight="1">
-      <c r="A202" s="8" t="s">
+      <c r="A202" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="B202" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C202" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D202" s="10" t="str">
+      <c r="B202" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C202" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D202" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#string","String")</f>
         <v>String</v>
       </c>
-      <c r="E202" s="7" t="s">
+      <c r="E202" s="6" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="203" ht="15.75" hidden="1" customHeight="1">
-      <c r="A203" s="8" t="s">
+      <c r="A203" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="B203" s="6" t="s">
+      <c r="B203" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C203" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D203" s="10" t="str">
+      <c r="C203" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D203" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#codeableconcept","CodeableConcept")</f>
         <v>CodeableConcept</v>
       </c>
-      <c r="E203" s="7" t="s">
+      <c r="E203" s="6" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="204" ht="15.75" hidden="1" customHeight="1">
-      <c r="A204" s="8" t="s">
+      <c r="A204" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="B204" s="6" t="s">
+      <c r="B204" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C204" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D204" s="10" t="str">
+      <c r="C204" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D204" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#coding","Coding")</f>
         <v>Coding</v>
       </c>
-      <c r="E204" s="7" t="s">
+      <c r="E204" s="6" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="205" ht="15.75" hidden="1" customHeight="1">
-      <c r="A205" s="8" t="s">
+      <c r="A205" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="B205" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C205" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D205" s="10" t="str">
+      <c r="B205" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C205" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D205" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#uri","Uri")</f>
         <v>Uri</v>
       </c>
-      <c r="E205" s="7" t="s">
+      <c r="E205" s="6" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="206" ht="15.75" hidden="1" customHeight="1">
-      <c r="A206" s="8" t="s">
+      <c r="A206" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="B206" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C206" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D206" s="10" t="str">
+      <c r="B206" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C206" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D206" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#string","String")</f>
         <v>String</v>
       </c>
-      <c r="E206" s="7" t="s">
+      <c r="E206" s="6" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="207" ht="15.75" hidden="1" customHeight="1">
-      <c r="A207" s="8" t="s">
+      <c r="A207" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="B207" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C207" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D207" s="10" t="str">
+      <c r="B207" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C207" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D207" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#code","Code")</f>
         <v>Code</v>
       </c>
-      <c r="E207" s="7" t="s">
+      <c r="E207" s="6" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="208" ht="15.75" hidden="1" customHeight="1">
-      <c r="A208" s="8" t="s">
+      <c r="A208" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B208" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C208" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D208" s="10" t="str">
+      <c r="B208" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C208" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D208" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#string","String")</f>
         <v>String</v>
       </c>
-      <c r="E208" s="7" t="s">
+      <c r="E208" s="6" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="209" ht="15.75" hidden="1" customHeight="1">
-      <c r="A209" s="8" t="s">
+      <c r="A209" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="B209" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C209" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D209" s="10" t="str">
+      <c r="B209" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C209" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D209" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#boolean","Boolean")</f>
         <v>Boolean</v>
       </c>
-      <c r="E209" s="7" t="s">
+      <c r="E209" s="6" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="210" ht="15.75" hidden="1" customHeight="1">
-      <c r="A210" s="8" t="s">
+      <c r="A210" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="B210" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C210" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D210" s="10" t="str">
+      <c r="B210" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C210" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D210" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#string","String")</f>
         <v>String</v>
       </c>
-      <c r="E210" s="7" t="s">
+      <c r="E210" s="6" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="211" ht="15.75" hidden="1" customHeight="1">
-      <c r="A211" s="8" t="s">
+      <c r="A211" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="B211" s="6" t="s">
+      <c r="B211" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C211" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D211" s="10" t="str">
+      <c r="C211" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D211" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#codeableconcept","CodeableConcept")</f>
         <v>CodeableConcept</v>
       </c>
-      <c r="E211" s="7" t="s">
+      <c r="E211" s="6" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="212" ht="15.75" hidden="1" customHeight="1">
-      <c r="A212" s="8" t="s">
+      <c r="A212" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="B212" s="6" t="s">
+      <c r="B212" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C212" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D212" s="10" t="str">
+      <c r="C212" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D212" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#coding","Coding")</f>
         <v>Coding</v>
       </c>
-      <c r="E212" s="7" t="s">
+      <c r="E212" s="6" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="213" ht="15.75" hidden="1" customHeight="1">
-      <c r="A213" s="8" t="s">
+      <c r="A213" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="B213" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C213" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D213" s="10" t="str">
+      <c r="B213" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C213" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D213" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#uri","Uri")</f>
         <v>Uri</v>
       </c>
-      <c r="E213" s="7" t="s">
+      <c r="E213" s="6" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="214" ht="15.75" hidden="1" customHeight="1">
-      <c r="A214" s="8" t="s">
+      <c r="A214" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="B214" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C214" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D214" s="10" t="str">
+      <c r="B214" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C214" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D214" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#string","String")</f>
         <v>String</v>
       </c>
-      <c r="E214" s="7" t="s">
+      <c r="E214" s="6" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="215" ht="15.75" hidden="1" customHeight="1">
-      <c r="A215" s="8" t="s">
+      <c r="A215" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="B215" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C215" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D215" s="10" t="str">
+      <c r="B215" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C215" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D215" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#code","Code")</f>
         <v>Code</v>
       </c>
-      <c r="E215" s="7" t="s">
+      <c r="E215" s="6" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="216" ht="15.75" hidden="1" customHeight="1">
-      <c r="A216" s="8" t="s">
+      <c r="A216" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B216" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C216" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D216" s="10" t="str">
+      <c r="B216" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C216" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D216" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#string","String")</f>
         <v>String</v>
       </c>
-      <c r="E216" s="7" t="s">
+      <c r="E216" s="6" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="217" ht="15.75" hidden="1" customHeight="1">
-      <c r="A217" s="8" t="s">
+      <c r="A217" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="B217" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C217" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D217" s="10" t="str">
+      <c r="B217" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C217" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D217" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#boolean","Boolean")</f>
         <v>Boolean</v>
       </c>
-      <c r="E217" s="7" t="s">
+      <c r="E217" s="6" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="218" ht="15.75" hidden="1" customHeight="1">
-      <c r="A218" s="8" t="s">
+      <c r="A218" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="B218" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C218" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D218" s="10" t="str">
+      <c r="B218" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C218" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D218" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#string","String")</f>
         <v>String</v>
       </c>
-      <c r="E218" s="7" t="s">
+      <c r="E218" s="6" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="219" ht="15.75" hidden="1" customHeight="1">
-      <c r="A219" s="8" t="s">
+      <c r="A219" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="B219" s="6" t="s">
+      <c r="B219" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C219" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D219" s="10" t="str">
+      <c r="C219" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D219" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#codeableconcept","CodeableConcept")</f>
         <v>CodeableConcept</v>
       </c>
-      <c r="E219" s="7" t="s">
+      <c r="E219" s="6" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="220" ht="15.75" hidden="1" customHeight="1">
-      <c r="A220" s="8" t="s">
+      <c r="A220" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="B220" s="6" t="s">
+      <c r="B220" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C220" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D220" s="10" t="str">
+      <c r="C220" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D220" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#coding","Coding")</f>
         <v>Coding</v>
       </c>
-      <c r="E220" s="7" t="s">
+      <c r="E220" s="6" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="221" ht="15.75" hidden="1" customHeight="1">
-      <c r="A221" s="8" t="s">
+      <c r="A221" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="B221" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C221" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D221" s="10" t="str">
+      <c r="B221" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C221" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D221" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#uri","Uri")</f>
         <v>Uri</v>
       </c>
-      <c r="E221" s="7" t="s">
+      <c r="E221" s="6" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="222" ht="15.75" hidden="1" customHeight="1">
-      <c r="A222" s="8" t="s">
+      <c r="A222" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="B222" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C222" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D222" s="10" t="str">
+      <c r="B222" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C222" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D222" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#string","String")</f>
         <v>String</v>
       </c>
-      <c r="E222" s="7" t="s">
+      <c r="E222" s="6" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="223" ht="15.75" hidden="1" customHeight="1">
-      <c r="A223" s="8" t="s">
+      <c r="A223" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="B223" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C223" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D223" s="10" t="str">
+      <c r="B223" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C223" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D223" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#code","Code")</f>
         <v>Code</v>
       </c>
-      <c r="E223" s="7" t="s">
+      <c r="E223" s="6" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="224" ht="15.75" hidden="1" customHeight="1">
-      <c r="A224" s="8" t="s">
+      <c r="A224" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B224" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C224" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D224" s="10" t="str">
+      <c r="B224" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C224" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D224" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#string","String")</f>
         <v>String</v>
       </c>
-      <c r="E224" s="7" t="s">
+      <c r="E224" s="6" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="225" ht="15.75" hidden="1" customHeight="1">
-      <c r="A225" s="8" t="s">
+      <c r="A225" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="B225" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C225" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D225" s="10" t="str">
+      <c r="B225" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C225" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D225" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#boolean","Boolean")</f>
         <v>Boolean</v>
       </c>
-      <c r="E225" s="7" t="s">
+      <c r="E225" s="6" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="226" ht="15.75" hidden="1" customHeight="1">
-      <c r="A226" s="8" t="s">
+      <c r="A226" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="B226" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C226" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D226" s="10" t="str">
+      <c r="B226" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C226" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D226" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#string","String")</f>
         <v>String</v>
       </c>
-      <c r="E226" s="7" t="s">
+      <c r="E226" s="6" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="227" ht="15.75" hidden="1" customHeight="1">
-      <c r="A227" s="8" t="s">
+      <c r="A227" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="B227" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C227" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D227" s="18" t="str">
+      <c r="B227" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C227" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D227" s="13" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/references.html","Reference")</f>
         <v>Reference</v>
       </c>
-      <c r="E227" s="7" t="s">
+      <c r="E227" s="6" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="228" ht="15.75" hidden="1" customHeight="1">
-      <c r="A228" s="8"/>
-      <c r="B228" s="6"/>
-      <c r="C228" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D228" s="13" t="str">
+      <c r="A228" s="7"/>
+      <c r="B228" s="5"/>
+      <c r="C228" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D228" s="11" t="str">
         <f>HYPERLINK("https://fhir.hl7.org.uk/STU3/StructureDefinition/CareConnect-Location-1","CareConnect-Location-1")</f>
         <v>CareConnect-Location-1</v>
       </c>
-      <c r="E228" s="7"/>
+      <c r="E228" s="6"/>
     </row>
     <row r="229" ht="15.75" hidden="1" customHeight="1">
-      <c r="A229" s="8" t="s">
+      <c r="A229" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="B229" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C229" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D229" s="10" t="str">
+      <c r="B229" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C229" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D229" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#string","String")</f>
         <v>String</v>
       </c>
-      <c r="E229" s="7" t="s">
+      <c r="E229" s="6" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="230" ht="15.75" hidden="1" customHeight="1">
-      <c r="A230" s="8" t="s">
+      <c r="A230" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="B230" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C230" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D230" s="10" t="str">
+      <c r="B230" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C230" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D230" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#identifier","Identifier")</f>
         <v>Identifier</v>
       </c>
-      <c r="E230" s="7" t="s">
+      <c r="E230" s="6" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="231" ht="15.75" hidden="1" customHeight="1">
-      <c r="A231" s="8" t="s">
+      <c r="A231" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="B231" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C231" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D231" s="10" t="str">
+      <c r="B231" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C231" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D231" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#string","String")</f>
         <v>String</v>
       </c>
-      <c r="E231" s="7" t="s">
+      <c r="E231" s="6" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="232" ht="15.75" hidden="1" customHeight="1">
-      <c r="A232" s="8" t="s">
+      <c r="A232" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="B232" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C232" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D232" s="10" t="str">
+      <c r="B232" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C232" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D232" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#codeableconcept","CodeableConcept")</f>
         <v>CodeableConcept</v>
       </c>
-      <c r="E232" s="7" t="s">
+      <c r="E232" s="6" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="233" ht="15.75" hidden="1" customHeight="1">
-      <c r="A233" s="8" t="s">
+      <c r="A233" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="B233" s="6" t="s">
+      <c r="B233" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C233" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D233" s="10" t="str">
+      <c r="C233" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D233" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#coding","Coding")</f>
         <v>Coding</v>
       </c>
-      <c r="E233" s="7" t="s">
+      <c r="E233" s="6" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="234" ht="15.75" hidden="1" customHeight="1">
-      <c r="A234" s="8" t="s">
+      <c r="A234" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="B234" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C234" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D234" s="10" t="str">
+      <c r="B234" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C234" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D234" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#uri","Uri")</f>
         <v>Uri</v>
       </c>
-      <c r="E234" s="7" t="s">
+      <c r="E234" s="6" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="235" ht="15.75" hidden="1" customHeight="1">
-      <c r="A235" s="8" t="s">
+      <c r="A235" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="B235" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C235" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D235" s="10" t="str">
+      <c r="B235" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C235" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D235" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#string","String")</f>
         <v>String</v>
       </c>
-      <c r="E235" s="7" t="s">
+      <c r="E235" s="6" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="236" ht="15.75" hidden="1" customHeight="1">
-      <c r="A236" s="8" t="s">
+      <c r="A236" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="B236" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C236" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D236" s="10" t="str">
+      <c r="B236" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C236" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D236" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#code","Code")</f>
         <v>Code</v>
       </c>
-      <c r="E236" s="7" t="s">
+      <c r="E236" s="6" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="237" ht="15.75" hidden="1" customHeight="1">
-      <c r="A237" s="8" t="s">
+      <c r="A237" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B237" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C237" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D237" s="10" t="str">
+      <c r="B237" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C237" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D237" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#string","String")</f>
         <v>String</v>
       </c>
-      <c r="E237" s="7" t="s">
+      <c r="E237" s="6" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="238" ht="15.75" hidden="1" customHeight="1">
-      <c r="A238" s="8" t="s">
+      <c r="A238" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="B238" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C238" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D238" s="10" t="str">
+      <c r="B238" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C238" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D238" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#boolean","Boolean")</f>
         <v>Boolean</v>
       </c>
-      <c r="E238" s="7" t="s">
+      <c r="E238" s="6" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="239" ht="15.75" hidden="1" customHeight="1">
-      <c r="A239" s="8" t="s">
+      <c r="A239" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="B239" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C239" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D239" s="10" t="str">
+      <c r="B239" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C239" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D239" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#string","String")</f>
         <v>String</v>
       </c>
-      <c r="E239" s="7" t="s">
+      <c r="E239" s="6" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="240" ht="15.75" customHeight="1">
-      <c r="A240" s="8" t="s">
+      <c r="A240" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="B240" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="C240" s="9" t="s">
+      <c r="B240" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C240" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D240" s="10" t="str">
+      <c r="D240" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/backboneelement.html","BackboneElement")</f>
         <v>BackboneElement</v>
       </c>
-      <c r="E240" s="7" t="s">
+      <c r="E240" s="6" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="241" ht="15.75" hidden="1" customHeight="1">
-      <c r="A241" s="8" t="s">
+      <c r="A241" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="B241" s="6" t="s">
+      <c r="B241" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C241" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D241" s="10" t="str">
+      <c r="C241" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D241" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/extensibility.html#Extension","Extension")</f>
         <v>Extension</v>
       </c>
-      <c r="E241" s="7" t="s">
+      <c r="E241" s="6" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="242" ht="15.75" customHeight="1">
-      <c r="A242" s="8" t="s">
+      <c r="A242" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="B242" s="6" t="s">
+      <c r="B242" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="C242" s="9" t="s">
+      <c r="C242" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D242" s="18" t="str">
+      <c r="D242" s="13" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/references.html","Reference")</f>
         <v>Reference</v>
       </c>
-      <c r="E242" s="11" t="s">
+      <c r="E242" s="6" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="243" ht="15.75" customHeight="1">
-      <c r="A243" s="8"/>
-      <c r="B243" s="6"/>
-      <c r="C243" s="9" t="s">
+      <c r="A243" s="7"/>
+      <c r="B243" s="5"/>
+      <c r="C243" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D243" s="13" t="str">
+      <c r="D243" s="11" t="str">
         <f>HYPERLINK("https://fhir.hl7.org.uk/STU3/StructureDefinition/CareConnect-Location-1","CareConnect-Location-1")</f>
         <v>CareConnect-Location-1</v>
       </c>
-      <c r="E243" s="11" t="s">
+      <c r="E243" s="6" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="244" ht="15.75" customHeight="1">
-      <c r="A244" s="8" t="s">
+      <c r="A244" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="B244" s="19" t="s">
+      <c r="B244" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="C244" s="9" t="s">
+      <c r="C244" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D244" s="10" t="str">
+      <c r="D244" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#string","String")</f>
         <v>String</v>
       </c>
-      <c r="E244" s="11" t="s">
+      <c r="E244" s="6" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="245" ht="15.75" hidden="1" customHeight="1">
-      <c r="A245" s="8" t="s">
+      <c r="A245" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="B245" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C245" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D245" s="10" t="str">
+      <c r="B245" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C245" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D245" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#identifier","Identifier")</f>
         <v>Identifier</v>
       </c>
-      <c r="E245" s="7" t="s">
+      <c r="E245" s="6" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="246" ht="15.75" hidden="1" customHeight="1">
-      <c r="A246" s="8" t="s">
+      <c r="A246" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="B246" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C246" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D246" s="10" t="str">
+      <c r="B246" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C246" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D246" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#string","String")</f>
         <v>String</v>
       </c>
-      <c r="E246" s="7" t="s">
+      <c r="E246" s="6" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="247" ht="15.75" hidden="1" customHeight="1">
-      <c r="A247" s="8" t="s">
+      <c r="A247" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="B247" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C247" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D247" s="10" t="str">
+      <c r="B247" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C247" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D247" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#code","Code")</f>
         <v>Code</v>
       </c>
-      <c r="E247" s="7" t="s">
+      <c r="E247" s="6" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="248" ht="15.75" hidden="1" customHeight="1">
-      <c r="A248" s="8" t="s">
+      <c r="A248" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="B248" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C248" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D248" s="10" t="str">
+      <c r="B248" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C248" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D248" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#period","Period")</f>
         <v>Period</v>
       </c>
-      <c r="E248" s="7" t="s">
+      <c r="E248" s="6" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="249" ht="15.75" hidden="1" customHeight="1">
-      <c r="A249" s="8" t="s">
+      <c r="A249" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="B249" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C249" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D249" s="10" t="str">
+      <c r="B249" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C249" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D249" s="9" t="str">
         <f t="shared" ref="D249:D250" si="10">HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#datetime","dateTime")</f>
         <v>dateTime</v>
       </c>
-      <c r="E249" s="7" t="s">
+      <c r="E249" s="6" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="250" ht="15.75" hidden="1" customHeight="1">
-      <c r="A250" s="8" t="s">
+      <c r="A250" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="B250" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C250" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D250" s="10" t="str">
+      <c r="B250" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C250" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D250" s="9" t="str">
         <f t="shared" si="10"/>
         <v>dateTime</v>
       </c>
-      <c r="E250" s="7" t="s">
+      <c r="E250" s="6" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="251" ht="15.75" hidden="1" customHeight="1">
-      <c r="A251" s="8" t="s">
+      <c r="A251" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="B251" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C251" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D251" s="18" t="str">
+      <c r="B251" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C251" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D251" s="13" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/references.html","Reference")</f>
         <v>Reference</v>
       </c>
-      <c r="E251" s="7" t="s">
+      <c r="E251" s="6" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="252" ht="15.75" hidden="1" customHeight="1">
-      <c r="A252" s="8"/>
-      <c r="B252" s="6"/>
-      <c r="C252" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D252" s="13" t="str">
+      <c r="A252" s="7"/>
+      <c r="B252" s="5"/>
+      <c r="C252" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D252" s="11" t="str">
         <f>HYPERLINK("https://fhir.hl7.org.uk/STU3/StructureDefinition/CareConnect-Organization-1","CareConnect-Organization-1")</f>
         <v>CareConnect-Organization-1</v>
       </c>
-      <c r="E252" s="7"/>
+      <c r="E252" s="6"/>
     </row>
     <row r="253" ht="15.75" hidden="1" customHeight="1">
-      <c r="A253" s="8" t="s">
+      <c r="A253" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="B253" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C253" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D253" s="10" t="str">
+      <c r="B253" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C253" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D253" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#string","String")</f>
         <v>String</v>
       </c>
-      <c r="E253" s="7" t="s">
+      <c r="E253" s="6" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="254" ht="15.75" hidden="1" customHeight="1">
-      <c r="A254" s="8" t="s">
+      <c r="A254" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="B254" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C254" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D254" s="10" t="str">
+      <c r="B254" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C254" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D254" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#identifier","Identifier")</f>
         <v>Identifier</v>
       </c>
-      <c r="E254" s="7" t="s">
+      <c r="E254" s="6" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="255" ht="15.75" hidden="1" customHeight="1">
-      <c r="A255" s="8" t="s">
+      <c r="A255" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="B255" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C255" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D255" s="10" t="str">
+      <c r="B255" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C255" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D255" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#string","String")</f>
         <v>String</v>
       </c>
-      <c r="E255" s="7" t="s">
+      <c r="E255" s="6" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="256" ht="15.75" hidden="1" customHeight="1">
-      <c r="A256" s="8" t="s">
+      <c r="A256" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="B256" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C256" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D256" s="18" t="str">
+      <c r="B256" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C256" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D256" s="13" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/references.html","Reference")</f>
         <v>Reference</v>
       </c>
-      <c r="E256" s="7" t="s">
+      <c r="E256" s="6" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="257" ht="15.75" hidden="1" customHeight="1">
-      <c r="A257" s="8"/>
-      <c r="B257" s="6"/>
-      <c r="C257" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D257" s="13" t="str">
+      <c r="A257" s="7"/>
+      <c r="B257" s="5"/>
+      <c r="C257" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D257" s="11" t="str">
         <f>HYPERLINK("https://fhir.hl7.org.uk/STU3/StructureDefinition/CareConnect-Encounter-1","CareConnect-Encounter-1")</f>
         <v>CareConnect-Encounter-1</v>
       </c>
-      <c r="E257" s="7"/>
+      <c r="E257" s="6"/>
     </row>
     <row r="258" ht="15.75" hidden="1" customHeight="1">
-      <c r="A258" s="8" t="s">
+      <c r="A258" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="B258" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C258" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D258" s="10" t="str">
+      <c r="B258" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C258" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D258" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#string","String")</f>
         <v>String</v>
       </c>
-      <c r="E258" s="7" t="s">
+      <c r="E258" s="6" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="259" ht="15.75" hidden="1" customHeight="1">
-      <c r="A259" s="8" t="s">
+      <c r="A259" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="B259" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C259" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D259" s="10" t="str">
+      <c r="B259" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C259" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D259" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#identifier","Identifier")</f>
         <v>Identifier</v>
       </c>
-      <c r="E259" s="7" t="s">
+      <c r="E259" s="6" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="260" ht="15.75" hidden="1" customHeight="1">
-      <c r="A260" s="8" t="s">
+      <c r="A260" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="B260" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C260" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D260" s="10" t="str">
+      <c r="B260" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C260" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D260" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#string","String")</f>
         <v>String</v>
       </c>
-      <c r="E260" s="7" t="s">
+      <c r="E260" s="6" t="s">
         <v>73</v>
       </c>
     </row>

--- a/Excel_profile_templates/Profile Template - CC Encounter Admission details list.xlsx
+++ b/Excel_profile_templates/Profile Template - CC Encounter Admission details list.xlsx
@@ -889,7 +889,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="16">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -935,12 +935,6 @@
     </xf>
     <xf borderId="0" fillId="2" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1052,7 +1046,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" ht="15.75" hidden="1" customHeight="1">
+    <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="7" t="s">
         <v>18</v>
       </c>
@@ -1070,7 +1064,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" ht="15.75" hidden="1" customHeight="1">
+    <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="7" t="s">
         <v>20</v>
       </c>
@@ -1088,7 +1082,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" ht="15.75" hidden="1" customHeight="1">
+    <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="7" t="s">
         <v>22</v>
       </c>
@@ -1106,7 +1100,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" ht="15.75" hidden="1" customHeight="1">
+    <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="7" t="s">
         <v>24</v>
       </c>
@@ -1124,7 +1118,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" ht="15.75" hidden="1" customHeight="1">
+    <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="7" t="s">
         <v>27</v>
       </c>
@@ -1142,7 +1136,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" ht="15.75" hidden="1" customHeight="1">
+    <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="7" t="s">
         <v>29</v>
       </c>
@@ -1160,7 +1154,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" ht="15.75" hidden="1" customHeight="1">
+    <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="7" t="s">
         <v>31</v>
       </c>
@@ -1178,7 +1172,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" ht="15.75" hidden="1" customHeight="1">
+    <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="7" t="s">
         <v>33</v>
       </c>
@@ -1214,7 +1208,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" ht="15.75" hidden="1" customHeight="1">
+    <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="7" t="s">
         <v>37</v>
       </c>
@@ -1232,7 +1226,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="15" ht="15.75" hidden="1" customHeight="1">
+    <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="7" t="s">
         <v>39</v>
       </c>
@@ -1250,7 +1244,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" ht="15.75" hidden="1" customHeight="1">
+    <row r="16" ht="15.75" customHeight="1">
       <c r="A16" s="7" t="s">
         <v>41</v>
       </c>
@@ -1268,7 +1262,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="17" ht="15.75" hidden="1" customHeight="1">
+    <row r="17" ht="15.75" customHeight="1">
       <c r="A17" s="7" t="s">
         <v>43</v>
       </c>
@@ -1286,7 +1280,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="18" ht="15.75" hidden="1" customHeight="1">
+    <row r="18" ht="15.75" customHeight="1">
       <c r="A18" s="7" t="s">
         <v>45</v>
       </c>
@@ -1304,7 +1298,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="19" ht="15.75" hidden="1" customHeight="1">
+    <row r="19" ht="15.75" customHeight="1">
       <c r="A19" s="7" t="s">
         <v>47</v>
       </c>
@@ -1322,7 +1316,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="20" ht="15.75" hidden="1" customHeight="1">
+    <row r="20" ht="15.75" customHeight="1">
       <c r="A20" s="7" t="s">
         <v>49</v>
       </c>
@@ -1340,7 +1334,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" ht="15.75" hidden="1" customHeight="1">
+    <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="7" t="s">
         <v>51</v>
       </c>
@@ -1358,7 +1352,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="22" ht="15.75" hidden="1" customHeight="1">
+    <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="7" t="s">
         <v>53</v>
       </c>
@@ -1412,7 +1406,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="25" ht="15.75" hidden="1" customHeight="1">
+    <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="7" t="s">
         <v>60</v>
       </c>
@@ -1430,7 +1424,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="26" ht="15.75" hidden="1" customHeight="1">
+    <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="7" t="s">
         <v>62</v>
       </c>
@@ -1448,7 +1442,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="27" ht="15.75" hidden="1" customHeight="1">
+    <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="7" t="s">
         <v>64</v>
       </c>
@@ -1466,7 +1460,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="28" ht="15.75" hidden="1" customHeight="1">
+    <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="7" t="s">
         <v>66</v>
       </c>
@@ -1484,7 +1478,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="29" ht="15.75" hidden="1" customHeight="1">
+    <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="7"/>
       <c r="B29" s="5"/>
       <c r="C29" s="8" t="s">
@@ -1496,7 +1490,7 @@
       </c>
       <c r="E29" s="6"/>
     </row>
-    <row r="30" ht="15.75" hidden="1" customHeight="1">
+    <row r="30" ht="15.75" customHeight="1">
       <c r="A30" s="7" t="s">
         <v>68</v>
       </c>
@@ -1514,7 +1508,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="31" ht="15.75" hidden="1" customHeight="1">
+    <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="7" t="s">
         <v>70</v>
       </c>
@@ -1532,7 +1526,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="32" ht="15.75" hidden="1" customHeight="1">
+    <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="7" t="s">
         <v>72</v>
       </c>
@@ -1568,7 +1562,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="34" ht="15.75" hidden="1" customHeight="1">
+    <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="7" t="s">
         <v>76</v>
       </c>
@@ -1586,7 +1580,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="35" ht="15.75" hidden="1" customHeight="1">
+    <row r="35" ht="15.75" customHeight="1">
       <c r="A35" s="7" t="s">
         <v>78</v>
       </c>
@@ -1604,7 +1598,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="36" ht="15.75" hidden="1" customHeight="1">
+    <row r="36" ht="15.75" customHeight="1">
       <c r="A36" s="7" t="s">
         <v>80</v>
       </c>
@@ -1622,7 +1616,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="37" ht="15.75" hidden="1" customHeight="1">
+    <row r="37" ht="15.75" customHeight="1">
       <c r="A37" s="7" t="s">
         <v>60</v>
       </c>
@@ -1640,7 +1634,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="38" ht="15.75" hidden="1" customHeight="1">
+    <row r="38" ht="15.75" customHeight="1">
       <c r="A38" s="7" t="s">
         <v>62</v>
       </c>
@@ -1658,7 +1652,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="39" ht="15.75" hidden="1" customHeight="1">
+    <row r="39" ht="15.75" customHeight="1">
       <c r="A39" s="7" t="s">
         <v>64</v>
       </c>
@@ -1676,7 +1670,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="40" ht="15.75" hidden="1" customHeight="1">
+    <row r="40" ht="15.75" customHeight="1">
       <c r="A40" s="7" t="s">
         <v>83</v>
       </c>
@@ -1694,7 +1688,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="41" ht="15.75" hidden="1" customHeight="1">
+    <row r="41" ht="15.75" customHeight="1">
       <c r="A41" s="7" t="s">
         <v>55</v>
       </c>
@@ -1712,7 +1706,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="42" ht="15.75" hidden="1" customHeight="1">
+    <row r="42" ht="15.75" customHeight="1">
       <c r="A42" s="7" t="s">
         <v>85</v>
       </c>
@@ -1730,7 +1724,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="43" ht="15.75" hidden="1" customHeight="1">
+    <row r="43" ht="15.75" customHeight="1">
       <c r="A43" s="7" t="s">
         <v>86</v>
       </c>
@@ -1748,7 +1742,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="44" ht="15.75" hidden="1" customHeight="1">
+    <row r="44" ht="15.75" customHeight="1">
       <c r="A44" s="7" t="s">
         <v>87</v>
       </c>
@@ -1766,7 +1760,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="45" ht="15.75" hidden="1" customHeight="1">
+    <row r="45" ht="15.75" customHeight="1">
       <c r="A45" s="7" t="s">
         <v>88</v>
       </c>
@@ -1784,7 +1778,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="46" ht="15.75" hidden="1" customHeight="1">
+    <row r="46" ht="15.75" customHeight="1">
       <c r="A46" s="7" t="s">
         <v>89</v>
       </c>
@@ -1802,7 +1796,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="47" ht="15.75" hidden="1" customHeight="1">
+    <row r="47" ht="15.75" customHeight="1">
       <c r="A47" s="7" t="s">
         <v>78</v>
       </c>
@@ -1820,7 +1814,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="48" ht="15.75" hidden="1" customHeight="1">
+    <row r="48" ht="15.75" customHeight="1">
       <c r="A48" s="7" t="s">
         <v>91</v>
       </c>
@@ -1838,7 +1832,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="49" ht="15.75" hidden="1" customHeight="1">
+    <row r="49" ht="15.75" customHeight="1">
       <c r="A49" s="7" t="s">
         <v>92</v>
       </c>
@@ -1856,7 +1850,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="50" ht="15.75" hidden="1" customHeight="1">
+    <row r="50" ht="15.75" customHeight="1">
       <c r="A50" s="7" t="s">
         <v>93</v>
       </c>
@@ -1874,7 +1868,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="51" ht="15.75" hidden="1" customHeight="1">
+    <row r="51" ht="15.75" customHeight="1">
       <c r="A51" s="7" t="s">
         <v>94</v>
       </c>
@@ -1892,7 +1886,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="52" ht="15.75" hidden="1" customHeight="1">
+    <row r="52" ht="15.75" customHeight="1">
       <c r="A52" s="7" t="s">
         <v>72</v>
       </c>
@@ -1910,7 +1904,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="53" ht="15.75" hidden="1" customHeight="1">
+    <row r="53" ht="15.75" customHeight="1">
       <c r="A53" s="7" t="s">
         <v>95</v>
       </c>
@@ -1928,7 +1922,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="54" ht="15.75" hidden="1" customHeight="1">
+    <row r="54" ht="15.75" customHeight="1">
       <c r="A54" s="7" t="s">
         <v>60</v>
       </c>
@@ -1946,7 +1940,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="55" ht="15.75" hidden="1" customHeight="1">
+    <row r="55" ht="15.75" customHeight="1">
       <c r="A55" s="7" t="s">
         <v>62</v>
       </c>
@@ -1964,7 +1958,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="56" ht="15.75" hidden="1" customHeight="1">
+    <row r="56" ht="15.75" customHeight="1">
       <c r="A56" s="7" t="s">
         <v>64</v>
       </c>
@@ -1982,7 +1976,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="57" ht="15.75" hidden="1" customHeight="1">
+    <row r="57" ht="15.75" customHeight="1">
       <c r="A57" s="7" t="s">
         <v>97</v>
       </c>
@@ -2000,7 +1994,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="58" ht="15.75" hidden="1" customHeight="1">
+    <row r="58" ht="15.75" customHeight="1">
       <c r="A58" s="7" t="s">
         <v>99</v>
       </c>
@@ -2018,7 +2012,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="59" ht="15.75" hidden="1" customHeight="1">
+    <row r="59" ht="15.75" customHeight="1">
       <c r="A59" s="7" t="s">
         <v>101</v>
       </c>
@@ -2036,7 +2030,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="60" ht="15.75" hidden="1" customHeight="1">
+    <row r="60" ht="15.75" customHeight="1">
       <c r="A60" s="7" t="s">
         <v>103</v>
       </c>
@@ -2054,7 +2048,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="61" ht="15.75" hidden="1" customHeight="1">
+    <row r="61" ht="15.75" customHeight="1">
       <c r="A61" s="7" t="s">
         <v>92</v>
       </c>
@@ -2072,7 +2066,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="62" ht="15.75" hidden="1" customHeight="1">
+    <row r="62" ht="15.75" customHeight="1">
       <c r="A62" s="7" t="s">
         <v>93</v>
       </c>
@@ -2090,7 +2084,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="63" ht="15.75" hidden="1" customHeight="1">
+    <row r="63" ht="15.75" customHeight="1">
       <c r="A63" s="7" t="s">
         <v>94</v>
       </c>
@@ -2108,7 +2102,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="64" ht="15.75" hidden="1" customHeight="1">
+    <row r="64" ht="15.75" customHeight="1">
       <c r="A64" s="7" t="s">
         <v>72</v>
       </c>
@@ -2126,7 +2120,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="65" ht="15.75" hidden="1" customHeight="1">
+    <row r="65" ht="15.75" customHeight="1">
       <c r="A65" s="7" t="s">
         <v>95</v>
       </c>
@@ -2144,7 +2138,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="66" ht="15.75" hidden="1" customHeight="1">
+    <row r="66" ht="15.75" customHeight="1">
       <c r="A66" s="7" t="s">
         <v>106</v>
       </c>
@@ -2162,7 +2156,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="67" ht="15.75" hidden="1" customHeight="1">
+    <row r="67" ht="15.75" customHeight="1">
       <c r="A67" s="7" t="s">
         <v>107</v>
       </c>
@@ -2180,7 +2174,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="68" ht="15.75" hidden="1" customHeight="1">
+    <row r="68" ht="15.75" customHeight="1">
       <c r="A68" s="7" t="s">
         <v>99</v>
       </c>
@@ -2198,7 +2192,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="69" ht="15.75" hidden="1" customHeight="1">
+    <row r="69" ht="15.75" customHeight="1">
       <c r="A69" s="7" t="s">
         <v>92</v>
       </c>
@@ -2216,7 +2210,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="70" ht="15.75" hidden="1" customHeight="1">
+    <row r="70" ht="15.75" customHeight="1">
       <c r="A70" s="7" t="s">
         <v>93</v>
       </c>
@@ -2234,7 +2228,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="71" ht="15.75" hidden="1" customHeight="1">
+    <row r="71" ht="15.75" customHeight="1">
       <c r="A71" s="7" t="s">
         <v>94</v>
       </c>
@@ -2252,7 +2246,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="72" ht="15.75" hidden="1" customHeight="1">
+    <row r="72" ht="15.75" customHeight="1">
       <c r="A72" s="7" t="s">
         <v>72</v>
       </c>
@@ -2270,7 +2264,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="73" ht="15.75" hidden="1" customHeight="1">
+    <row r="73" ht="15.75" customHeight="1">
       <c r="A73" s="7" t="s">
         <v>95</v>
       </c>
@@ -2288,7 +2282,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="74" ht="15.75" hidden="1" customHeight="1">
+    <row r="74" ht="15.75" customHeight="1">
       <c r="A74" s="7" t="s">
         <v>106</v>
       </c>
@@ -2306,7 +2300,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="75" ht="15.75" hidden="1" customHeight="1">
+    <row r="75" ht="15.75" customHeight="1">
       <c r="A75" s="7" t="s">
         <v>109</v>
       </c>
@@ -2324,7 +2318,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="76" ht="15.75" hidden="1" customHeight="1">
+    <row r="76" ht="15.75" customHeight="1">
       <c r="A76" s="7"/>
       <c r="B76" s="5"/>
       <c r="C76" s="8" t="s">
@@ -2336,7 +2330,7 @@
       </c>
       <c r="E76" s="6"/>
     </row>
-    <row r="77" ht="15.75" hidden="1" customHeight="1">
+    <row r="77" ht="15.75" customHeight="1">
       <c r="A77" s="7"/>
       <c r="B77" s="5"/>
       <c r="C77" s="8" t="s">
@@ -2348,7 +2342,7 @@
       </c>
       <c r="E77" s="6"/>
     </row>
-    <row r="78" ht="15.75" hidden="1" customHeight="1">
+    <row r="78" ht="15.75" customHeight="1">
       <c r="A78" s="7" t="s">
         <v>111</v>
       </c>
@@ -2366,7 +2360,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="79" ht="15.75" hidden="1" customHeight="1">
+    <row r="79" ht="15.75" customHeight="1">
       <c r="A79" s="7" t="s">
         <v>112</v>
       </c>
@@ -2384,7 +2378,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="80" ht="15.75" hidden="1" customHeight="1">
+    <row r="80" ht="15.75" customHeight="1">
       <c r="A80" s="7" t="s">
         <v>87</v>
       </c>
@@ -2402,7 +2396,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="81" ht="15.75" hidden="1" customHeight="1">
+    <row r="81" ht="15.75" customHeight="1">
       <c r="A81" s="7" t="s">
         <v>113</v>
       </c>
@@ -2420,7 +2414,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="82" ht="15.75" hidden="1" customHeight="1">
+    <row r="82" ht="15.75" customHeight="1">
       <c r="A82" s="7"/>
       <c r="B82" s="5"/>
       <c r="C82" s="8" t="s">
@@ -2432,7 +2426,7 @@
       </c>
       <c r="E82" s="6"/>
     </row>
-    <row r="83" ht="15.75" hidden="1" customHeight="1">
+    <row r="83" ht="15.75" customHeight="1">
       <c r="A83" s="7" t="s">
         <v>111</v>
       </c>
@@ -2450,7 +2444,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="84" ht="15.75" hidden="1" customHeight="1">
+    <row r="84" ht="15.75" customHeight="1">
       <c r="A84" s="7" t="s">
         <v>112</v>
       </c>
@@ -2468,7 +2462,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="85" ht="15.75" hidden="1" customHeight="1">
+    <row r="85" ht="15.75" customHeight="1">
       <c r="A85" s="7" t="s">
         <v>87</v>
       </c>
@@ -2486,7 +2480,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="86" ht="15.75" hidden="1" customHeight="1">
+    <row r="86" ht="15.75" customHeight="1">
       <c r="A86" s="7" t="s">
         <v>115</v>
       </c>
@@ -2504,7 +2498,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="87" ht="15.75" hidden="1" customHeight="1">
+    <row r="87" ht="15.75" customHeight="1">
       <c r="A87" s="7"/>
       <c r="B87" s="5"/>
       <c r="C87" s="8" t="s">
@@ -2516,7 +2510,7 @@
       </c>
       <c r="E87" s="6"/>
     </row>
-    <row r="88" ht="15.75" hidden="1" customHeight="1">
+    <row r="88" ht="15.75" customHeight="1">
       <c r="A88" s="7" t="s">
         <v>111</v>
       </c>
@@ -2534,7 +2528,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="89" ht="15.75" hidden="1" customHeight="1">
+    <row r="89" ht="15.75" customHeight="1">
       <c r="A89" s="7" t="s">
         <v>112</v>
       </c>
@@ -2552,7 +2546,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="90" ht="15.75" hidden="1" customHeight="1">
+    <row r="90" ht="15.75" customHeight="1">
       <c r="A90" s="7" t="s">
         <v>87</v>
       </c>
@@ -2588,7 +2582,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="92" ht="15.75" hidden="1" customHeight="1">
+    <row r="92" ht="15.75" customHeight="1">
       <c r="A92" s="7" t="s">
         <v>78</v>
       </c>
@@ -2660,7 +2654,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="96" ht="15.75" hidden="1" customHeight="1">
+    <row r="96" ht="15.75" customHeight="1">
       <c r="A96" s="7" t="s">
         <v>45</v>
       </c>
@@ -2714,7 +2708,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="99" ht="15.75" hidden="1" customHeight="1">
+    <row r="99" ht="15.75" customHeight="1">
       <c r="A99" s="7" t="s">
         <v>51</v>
       </c>
@@ -2732,7 +2726,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="100" ht="15.75" hidden="1" customHeight="1">
+    <row r="100" ht="15.75" customHeight="1">
       <c r="A100" s="7" t="s">
         <v>53</v>
       </c>
@@ -2750,7 +2744,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="101" ht="15.75" hidden="1" customHeight="1">
+    <row r="101" ht="15.75" customHeight="1">
       <c r="A101" s="7" t="s">
         <v>60</v>
       </c>
@@ -2768,7 +2762,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="102" ht="15.75" hidden="1" customHeight="1">
+    <row r="102" ht="15.75" customHeight="1">
       <c r="A102" s="7" t="s">
         <v>62</v>
       </c>
@@ -2786,7 +2780,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="103" ht="15.75" hidden="1" customHeight="1">
+    <row r="103" ht="15.75" customHeight="1">
       <c r="A103" s="7" t="s">
         <v>64</v>
       </c>
@@ -2868,7 +2862,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="108" ht="15.75" hidden="1" customHeight="1">
+    <row r="108" ht="15.75" customHeight="1">
       <c r="A108" s="7" t="s">
         <v>70</v>
       </c>
@@ -2886,7 +2880,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="109" ht="15.75" hidden="1" customHeight="1">
+    <row r="109" ht="15.75" customHeight="1">
       <c r="A109" s="7" t="s">
         <v>72</v>
       </c>
@@ -2904,7 +2898,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="110" ht="15.75" hidden="1" customHeight="1">
+    <row r="110" ht="15.75" customHeight="1">
       <c r="A110" s="7" t="s">
         <v>131</v>
       </c>
@@ -2922,7 +2916,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="111" ht="15.75" hidden="1" customHeight="1">
+    <row r="111" ht="15.75" customHeight="1">
       <c r="A111" s="7"/>
       <c r="B111" s="5"/>
       <c r="C111" s="8" t="s">
@@ -2934,7 +2928,7 @@
       </c>
       <c r="E111" s="6"/>
     </row>
-    <row r="112" ht="15.75" hidden="1" customHeight="1">
+    <row r="112" ht="15.75" customHeight="1">
       <c r="A112" s="7" t="s">
         <v>111</v>
       </c>
@@ -2952,7 +2946,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="113" ht="15.75" hidden="1" customHeight="1">
+    <row r="113" ht="15.75" customHeight="1">
       <c r="A113" s="7" t="s">
         <v>112</v>
       </c>
@@ -2970,7 +2964,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="114" ht="15.75" hidden="1" customHeight="1">
+    <row r="114" ht="15.75" customHeight="1">
       <c r="A114" s="7" t="s">
         <v>87</v>
       </c>
@@ -3024,7 +3018,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="117" ht="15.75" hidden="1" customHeight="1">
+    <row r="117" ht="15.75" customHeight="1">
       <c r="A117" s="7" t="s">
         <v>137</v>
       </c>
@@ -3042,7 +3036,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="118" ht="15.75" hidden="1" customHeight="1">
+    <row r="118" ht="15.75" customHeight="1">
       <c r="A118" s="7" t="s">
         <v>138</v>
       </c>
@@ -3060,7 +3054,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="119" ht="15.75" hidden="1" customHeight="1">
+    <row r="119" ht="15.75" customHeight="1">
       <c r="A119" s="7" t="s">
         <v>58</v>
       </c>
@@ -3078,7 +3072,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="120" ht="15.75" hidden="1" customHeight="1">
+    <row r="120" ht="15.75" customHeight="1">
       <c r="A120" s="7" t="s">
         <v>141</v>
       </c>
@@ -3096,7 +3090,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="121" ht="15.75" hidden="1" customHeight="1">
+    <row r="121" ht="15.75" customHeight="1">
       <c r="A121" s="7" t="s">
         <v>143</v>
       </c>
@@ -3114,7 +3108,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="122" ht="15.75" hidden="1" customHeight="1">
+    <row r="122" ht="15.75" customHeight="1">
       <c r="A122" s="7" t="s">
         <v>55</v>
       </c>
@@ -3132,7 +3126,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="123" ht="15.75" hidden="1" customHeight="1">
+    <row r="123" ht="15.75" customHeight="1">
       <c r="A123" s="7" t="s">
         <v>86</v>
       </c>
@@ -3164,11 +3158,11 @@
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#codeableconcept","CodeableConcept")</f>
         <v>CodeableConcept</v>
       </c>
-      <c r="E124" s="16" t="s">
+      <c r="E124" s="6" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="125" ht="15.75" hidden="1" customHeight="1">
+    <row r="125" ht="15.75" customHeight="1">
       <c r="A125" s="7" t="s">
         <v>99</v>
       </c>
@@ -3204,7 +3198,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="127" ht="15.75" hidden="1" customHeight="1">
+    <row r="127" ht="15.75" customHeight="1">
       <c r="A127" s="7" t="s">
         <v>103</v>
       </c>
@@ -3240,7 +3234,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="129" ht="15.75" hidden="1" customHeight="1">
+    <row r="129" ht="15.75" customHeight="1">
       <c r="A129" s="7" t="s">
         <v>93</v>
       </c>
@@ -3294,7 +3288,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="132" ht="15.75" hidden="1" customHeight="1">
+    <row r="132" ht="15.75" customHeight="1">
       <c r="A132" s="7" t="s">
         <v>95</v>
       </c>
@@ -3330,7 +3324,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="134" ht="15.75" hidden="1" customHeight="1">
+    <row r="134" ht="15.75" customHeight="1">
       <c r="A134" s="7" t="s">
         <v>154</v>
       </c>
@@ -3348,7 +3342,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="135" ht="15.75" hidden="1" customHeight="1">
+    <row r="135" ht="15.75" customHeight="1">
       <c r="A135" s="7" t="s">
         <v>78</v>
       </c>
@@ -3366,7 +3360,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="136" ht="15.75" hidden="1" customHeight="1">
+    <row r="136" ht="15.75" customHeight="1">
       <c r="A136" s="7" t="s">
         <v>156</v>
       </c>
@@ -3384,7 +3378,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="137" ht="15.75" hidden="1" customHeight="1">
+    <row r="137" ht="15.75" customHeight="1">
       <c r="A137" s="7"/>
       <c r="B137" s="5"/>
       <c r="C137" s="8" t="s">
@@ -3396,7 +3390,7 @@
       </c>
       <c r="E137" s="6"/>
     </row>
-    <row r="138" ht="15.75" hidden="1" customHeight="1">
+    <row r="138" ht="15.75" customHeight="1">
       <c r="A138" s="7"/>
       <c r="B138" s="5"/>
       <c r="C138" s="8" t="s">
@@ -3408,7 +3402,7 @@
       </c>
       <c r="E138" s="6"/>
     </row>
-    <row r="139" ht="15.75" hidden="1" customHeight="1">
+    <row r="139" ht="15.75" customHeight="1">
       <c r="A139" s="7" t="s">
         <v>68</v>
       </c>
@@ -3426,7 +3420,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="140" ht="15.75" hidden="1" customHeight="1">
+    <row r="140" ht="15.75" customHeight="1">
       <c r="A140" s="7" t="s">
         <v>70</v>
       </c>
@@ -3444,7 +3438,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="141" ht="15.75" hidden="1" customHeight="1">
+    <row r="141" ht="15.75" customHeight="1">
       <c r="A141" s="7" t="s">
         <v>72</v>
       </c>
@@ -3462,7 +3456,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="142" ht="15.75" hidden="1" customHeight="1">
+    <row r="142" ht="15.75" customHeight="1">
       <c r="A142" s="7" t="s">
         <v>158</v>
       </c>
@@ -3480,7 +3474,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="143" ht="15.75" hidden="1" customHeight="1">
+    <row r="143" ht="15.75" customHeight="1">
       <c r="A143" s="7" t="s">
         <v>41</v>
       </c>
@@ -3498,7 +3492,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="144" ht="15.75" hidden="1" customHeight="1">
+    <row r="144" ht="15.75" customHeight="1">
       <c r="A144" s="7" t="s">
         <v>43</v>
       </c>
@@ -3516,7 +3510,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="145" ht="15.75" hidden="1" customHeight="1">
+    <row r="145" ht="15.75" customHeight="1">
       <c r="A145" s="7" t="s">
         <v>45</v>
       </c>
@@ -3534,7 +3528,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="146" ht="15.75" hidden="1" customHeight="1">
+    <row r="146" ht="15.75" customHeight="1">
       <c r="A146" s="7" t="s">
         <v>47</v>
       </c>
@@ -3552,7 +3546,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="147" ht="15.75" hidden="1" customHeight="1">
+    <row r="147" ht="15.75" customHeight="1">
       <c r="A147" s="7" t="s">
         <v>49</v>
       </c>
@@ -3570,7 +3564,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="148" ht="15.75" hidden="1" customHeight="1">
+    <row r="148" ht="15.75" customHeight="1">
       <c r="A148" s="7" t="s">
         <v>51</v>
       </c>
@@ -3588,7 +3582,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="149" ht="15.75" hidden="1" customHeight="1">
+    <row r="149" ht="15.75" customHeight="1">
       <c r="A149" s="7" t="s">
         <v>53</v>
       </c>
@@ -3606,7 +3600,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="150" ht="15.75" hidden="1" customHeight="1">
+    <row r="150" ht="15.75" customHeight="1">
       <c r="A150" s="7" t="s">
         <v>160</v>
       </c>
@@ -3624,7 +3618,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="151" ht="15.75" hidden="1" customHeight="1">
+    <row r="151" ht="15.75" customHeight="1">
       <c r="A151" s="7" t="s">
         <v>162</v>
       </c>
@@ -3642,7 +3636,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="152" ht="15.75" hidden="1" customHeight="1">
+    <row r="152" ht="15.75" customHeight="1">
       <c r="A152" s="7"/>
       <c r="B152" s="5"/>
       <c r="C152" s="8" t="s">
@@ -3654,7 +3648,7 @@
       </c>
       <c r="E152" s="6"/>
     </row>
-    <row r="153" ht="15.75" hidden="1" customHeight="1">
+    <row r="153" ht="15.75" customHeight="1">
       <c r="A153" s="7" t="s">
         <v>111</v>
       </c>
@@ -3672,7 +3666,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="154" ht="15.75" hidden="1" customHeight="1">
+    <row r="154" ht="15.75" customHeight="1">
       <c r="A154" s="7" t="s">
         <v>112</v>
       </c>
@@ -3690,7 +3684,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="155" ht="15.75" hidden="1" customHeight="1">
+    <row r="155" ht="15.75" customHeight="1">
       <c r="A155" s="7" t="s">
         <v>87</v>
       </c>
@@ -3740,11 +3734,11 @@
         <f>HYPERLINK("https://fhir.hl7.org.uk/STU3/StructureDefinition/Extension-CareConnect-AdmissionMethod-1","Extension-CareConnect-AdmissionMethod-1")</f>
         <v>Extension-CareConnect-AdmissionMethod-1</v>
       </c>
-      <c r="E157" s="17" t="s">
+      <c r="E157" s="12" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="158" ht="15.75" hidden="1" customHeight="1">
+    <row r="158" ht="15.75" customHeight="1">
       <c r="A158" s="7" t="s">
         <v>168</v>
       </c>
@@ -3762,7 +3756,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="159" ht="15.75" hidden="1" customHeight="1">
+    <row r="159" ht="15.75" customHeight="1">
       <c r="A159" s="7" t="s">
         <v>78</v>
       </c>
@@ -3780,7 +3774,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="160" ht="15.75" hidden="1" customHeight="1">
+    <row r="160" ht="15.75" customHeight="1">
       <c r="A160" s="7" t="s">
         <v>170</v>
       </c>
@@ -3798,7 +3792,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="161" ht="15.75" hidden="1" customHeight="1">
+    <row r="161" ht="15.75" customHeight="1">
       <c r="A161" s="7" t="s">
         <v>172</v>
       </c>
@@ -3816,7 +3810,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="162" ht="15.75" hidden="1" customHeight="1">
+    <row r="162" ht="15.75" customHeight="1">
       <c r="A162" s="7" t="s">
         <v>174</v>
       </c>
@@ -3834,7 +3828,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="163" ht="15.75" hidden="1" customHeight="1">
+    <row r="163" ht="15.75" customHeight="1">
       <c r="A163" s="7" t="s">
         <v>175</v>
       </c>
@@ -3852,7 +3846,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="164" ht="15.75" hidden="1" customHeight="1">
+    <row r="164" ht="15.75" customHeight="1">
       <c r="A164" s="7" t="s">
         <v>176</v>
       </c>
@@ -3870,7 +3864,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="165" ht="15.75" hidden="1" customHeight="1">
+    <row r="165" ht="15.75" customHeight="1">
       <c r="A165" s="7" t="s">
         <v>177</v>
       </c>
@@ -3888,7 +3882,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="166" ht="15.75" hidden="1" customHeight="1">
+    <row r="166" ht="15.75" customHeight="1">
       <c r="A166" s="7" t="s">
         <v>178</v>
       </c>
@@ -3906,7 +3900,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="167" ht="15.75" hidden="1" customHeight="1">
+    <row r="167" ht="15.75" customHeight="1">
       <c r="A167" s="7" t="s">
         <v>179</v>
       </c>
@@ -3924,7 +3918,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="168" ht="15.75" hidden="1" customHeight="1">
+    <row r="168" ht="15.75" customHeight="1">
       <c r="A168" s="7" t="s">
         <v>180</v>
       </c>
@@ -3942,7 +3936,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="169" ht="15.75" hidden="1" customHeight="1">
+    <row r="169" ht="15.75" customHeight="1">
       <c r="A169" s="7" t="s">
         <v>181</v>
       </c>
@@ -3960,7 +3954,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="170" ht="15.75" hidden="1" customHeight="1">
+    <row r="170" ht="15.75" customHeight="1">
       <c r="A170" s="7" t="s">
         <v>92</v>
       </c>
@@ -3978,7 +3972,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="171" ht="15.75" hidden="1" customHeight="1">
+    <row r="171" ht="15.75" customHeight="1">
       <c r="A171" s="7" t="s">
         <v>183</v>
       </c>
@@ -3996,7 +3990,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="172" ht="15.75" hidden="1" customHeight="1">
+    <row r="172" ht="15.75" customHeight="1">
       <c r="A172" s="7" t="s">
         <v>185</v>
       </c>
@@ -4014,7 +4008,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="173" ht="15.75" hidden="1" customHeight="1">
+    <row r="173" ht="15.75" customHeight="1">
       <c r="A173" s="7" t="s">
         <v>186</v>
       </c>
@@ -4032,7 +4026,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="174" ht="15.75" hidden="1" customHeight="1">
+    <row r="174" ht="15.75" customHeight="1">
       <c r="A174" s="7" t="s">
         <v>187</v>
       </c>
@@ -4050,7 +4044,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="175" ht="15.75" hidden="1" customHeight="1">
+    <row r="175" ht="15.75" customHeight="1">
       <c r="A175" s="7" t="s">
         <v>188</v>
       </c>
@@ -4068,7 +4062,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="176" ht="15.75" hidden="1" customHeight="1">
+    <row r="176" ht="15.75" customHeight="1">
       <c r="A176" s="7"/>
       <c r="B176" s="5"/>
       <c r="C176" s="8" t="s">
@@ -4080,7 +4074,7 @@
       </c>
       <c r="E176" s="6"/>
     </row>
-    <row r="177" ht="15.75" hidden="1" customHeight="1">
+    <row r="177" ht="15.75" customHeight="1">
       <c r="A177" s="7" t="s">
         <v>189</v>
       </c>
@@ -4098,7 +4092,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="178" ht="15.75" hidden="1" customHeight="1">
+    <row r="178" ht="15.75" customHeight="1">
       <c r="A178" s="7" t="s">
         <v>190</v>
       </c>
@@ -4116,7 +4110,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="179" ht="15.75" hidden="1" customHeight="1">
+    <row r="179" ht="15.75" customHeight="1">
       <c r="A179" s="7" t="s">
         <v>49</v>
       </c>
@@ -4134,7 +4128,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="180" ht="15.75" hidden="1" customHeight="1">
+    <row r="180" ht="15.75" customHeight="1">
       <c r="A180" s="7" t="s">
         <v>191</v>
       </c>
@@ -4152,7 +4146,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="181" ht="15.75" hidden="1" customHeight="1">
+    <row r="181" ht="15.75" customHeight="1">
       <c r="A181" s="7"/>
       <c r="B181" s="5"/>
       <c r="C181" s="8" t="s">
@@ -4164,7 +4158,7 @@
       </c>
       <c r="E181" s="6"/>
     </row>
-    <row r="182" ht="15.75" hidden="1" customHeight="1">
+    <row r="182" ht="15.75" customHeight="1">
       <c r="A182" s="7" t="s">
         <v>68</v>
       </c>
@@ -4182,7 +4176,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="183" ht="15.75" hidden="1" customHeight="1">
+    <row r="183" ht="15.75" customHeight="1">
       <c r="A183" s="7" t="s">
         <v>70</v>
       </c>
@@ -4200,7 +4194,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="184" ht="15.75" hidden="1" customHeight="1">
+    <row r="184" ht="15.75" customHeight="1">
       <c r="A184" s="7" t="s">
         <v>72</v>
       </c>
@@ -4272,7 +4266,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="188" ht="15.75" hidden="1" customHeight="1">
+    <row r="188" ht="15.75" customHeight="1">
       <c r="A188" s="7" t="s">
         <v>45</v>
       </c>
@@ -4326,7 +4320,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="191" ht="15.75" hidden="1" customHeight="1">
+    <row r="191" ht="15.75" customHeight="1">
       <c r="A191" s="7" t="s">
         <v>51</v>
       </c>
@@ -4344,7 +4338,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="192" ht="15.75" hidden="1" customHeight="1">
+    <row r="192" ht="15.75" customHeight="1">
       <c r="A192" s="7" t="s">
         <v>53</v>
       </c>
@@ -4362,7 +4356,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="193" ht="15.75" hidden="1" customHeight="1">
+    <row r="193" ht="15.75" customHeight="1">
       <c r="A193" s="7" t="s">
         <v>198</v>
       </c>
@@ -4380,7 +4374,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="194" ht="15.75" hidden="1" customHeight="1">
+    <row r="194" ht="15.75" customHeight="1">
       <c r="A194" s="7" t="s">
         <v>41</v>
       </c>
@@ -4398,7 +4392,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="195" ht="15.75" hidden="1" customHeight="1">
+    <row r="195" ht="15.75" customHeight="1">
       <c r="A195" s="7" t="s">
         <v>200</v>
       </c>
@@ -4416,7 +4410,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="196" ht="15.75" hidden="1" customHeight="1">
+    <row r="196" ht="15.75" customHeight="1">
       <c r="A196" s="7" t="s">
         <v>201</v>
       </c>
@@ -4434,7 +4428,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="197" ht="15.75" hidden="1" customHeight="1">
+    <row r="197" ht="15.75" customHeight="1">
       <c r="A197" s="7" t="s">
         <v>43</v>
       </c>
@@ -4452,7 +4446,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="198" ht="15.75" hidden="1" customHeight="1">
+    <row r="198" ht="15.75" customHeight="1">
       <c r="A198" s="7" t="s">
         <v>45</v>
       </c>
@@ -4470,7 +4464,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="199" ht="15.75" hidden="1" customHeight="1">
+    <row r="199" ht="15.75" customHeight="1">
       <c r="A199" s="7" t="s">
         <v>47</v>
       </c>
@@ -4488,7 +4482,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="200" ht="15.75" hidden="1" customHeight="1">
+    <row r="200" ht="15.75" customHeight="1">
       <c r="A200" s="7" t="s">
         <v>49</v>
       </c>
@@ -4506,7 +4500,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="201" ht="15.75" hidden="1" customHeight="1">
+    <row r="201" ht="15.75" customHeight="1">
       <c r="A201" s="7" t="s">
         <v>51</v>
       </c>
@@ -4524,7 +4518,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="202" ht="15.75" hidden="1" customHeight="1">
+    <row r="202" ht="15.75" customHeight="1">
       <c r="A202" s="7" t="s">
         <v>53</v>
       </c>
@@ -4542,7 +4536,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="203" ht="15.75" hidden="1" customHeight="1">
+    <row r="203" ht="15.75" customHeight="1">
       <c r="A203" s="7" t="s">
         <v>202</v>
       </c>
@@ -4560,7 +4554,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="204" ht="15.75" hidden="1" customHeight="1">
+    <row r="204" ht="15.75" customHeight="1">
       <c r="A204" s="7" t="s">
         <v>41</v>
       </c>
@@ -4578,7 +4572,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="205" ht="15.75" hidden="1" customHeight="1">
+    <row r="205" ht="15.75" customHeight="1">
       <c r="A205" s="7" t="s">
         <v>43</v>
       </c>
@@ -4596,7 +4590,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="206" ht="15.75" hidden="1" customHeight="1">
+    <row r="206" ht="15.75" customHeight="1">
       <c r="A206" s="7" t="s">
         <v>45</v>
       </c>
@@ -4614,7 +4608,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="207" ht="15.75" hidden="1" customHeight="1">
+    <row r="207" ht="15.75" customHeight="1">
       <c r="A207" s="7" t="s">
         <v>47</v>
       </c>
@@ -4632,7 +4626,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="208" ht="15.75" hidden="1" customHeight="1">
+    <row r="208" ht="15.75" customHeight="1">
       <c r="A208" s="7" t="s">
         <v>49</v>
       </c>
@@ -4650,7 +4644,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="209" ht="15.75" hidden="1" customHeight="1">
+    <row r="209" ht="15.75" customHeight="1">
       <c r="A209" s="7" t="s">
         <v>51</v>
       </c>
@@ -4668,7 +4662,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="210" ht="15.75" hidden="1" customHeight="1">
+    <row r="210" ht="15.75" customHeight="1">
       <c r="A210" s="7" t="s">
         <v>53</v>
       </c>
@@ -4686,7 +4680,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="211" ht="15.75" hidden="1" customHeight="1">
+    <row r="211" ht="15.75" customHeight="1">
       <c r="A211" s="7" t="s">
         <v>204</v>
       </c>
@@ -4704,7 +4698,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="212" ht="15.75" hidden="1" customHeight="1">
+    <row r="212" ht="15.75" customHeight="1">
       <c r="A212" s="7" t="s">
         <v>41</v>
       </c>
@@ -4722,7 +4716,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="213" ht="15.75" hidden="1" customHeight="1">
+    <row r="213" ht="15.75" customHeight="1">
       <c r="A213" s="7" t="s">
         <v>43</v>
       </c>
@@ -4740,7 +4734,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="214" ht="15.75" hidden="1" customHeight="1">
+    <row r="214" ht="15.75" customHeight="1">
       <c r="A214" s="7" t="s">
         <v>45</v>
       </c>
@@ -4758,7 +4752,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="215" ht="15.75" hidden="1" customHeight="1">
+    <row r="215" ht="15.75" customHeight="1">
       <c r="A215" s="7" t="s">
         <v>47</v>
       </c>
@@ -4776,7 +4770,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="216" ht="15.75" hidden="1" customHeight="1">
+    <row r="216" ht="15.75" customHeight="1">
       <c r="A216" s="7" t="s">
         <v>49</v>
       </c>
@@ -4794,7 +4788,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="217" ht="15.75" hidden="1" customHeight="1">
+    <row r="217" ht="15.75" customHeight="1">
       <c r="A217" s="7" t="s">
         <v>51</v>
       </c>
@@ -4812,7 +4806,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="218" ht="15.75" hidden="1" customHeight="1">
+    <row r="218" ht="15.75" customHeight="1">
       <c r="A218" s="7" t="s">
         <v>53</v>
       </c>
@@ -4830,7 +4824,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="219" ht="15.75" hidden="1" customHeight="1">
+    <row r="219" ht="15.75" customHeight="1">
       <c r="A219" s="7" t="s">
         <v>206</v>
       </c>
@@ -4848,7 +4842,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="220" ht="15.75" hidden="1" customHeight="1">
+    <row r="220" ht="15.75" customHeight="1">
       <c r="A220" s="7" t="s">
         <v>41</v>
       </c>
@@ -4866,7 +4860,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="221" ht="15.75" hidden="1" customHeight="1">
+    <row r="221" ht="15.75" customHeight="1">
       <c r="A221" s="7" t="s">
         <v>43</v>
       </c>
@@ -4884,7 +4878,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="222" ht="15.75" hidden="1" customHeight="1">
+    <row r="222" ht="15.75" customHeight="1">
       <c r="A222" s="7" t="s">
         <v>45</v>
       </c>
@@ -4902,7 +4896,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="223" ht="15.75" hidden="1" customHeight="1">
+    <row r="223" ht="15.75" customHeight="1">
       <c r="A223" s="7" t="s">
         <v>47</v>
       </c>
@@ -4920,7 +4914,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="224" ht="15.75" hidden="1" customHeight="1">
+    <row r="224" ht="15.75" customHeight="1">
       <c r="A224" s="7" t="s">
         <v>49</v>
       </c>
@@ -4938,7 +4932,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="225" ht="15.75" hidden="1" customHeight="1">
+    <row r="225" ht="15.75" customHeight="1">
       <c r="A225" s="7" t="s">
         <v>51</v>
       </c>
@@ -4956,7 +4950,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="226" ht="15.75" hidden="1" customHeight="1">
+    <row r="226" ht="15.75" customHeight="1">
       <c r="A226" s="7" t="s">
         <v>53</v>
       </c>
@@ -4974,7 +4968,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="227" ht="15.75" hidden="1" customHeight="1">
+    <row r="227" ht="15.75" customHeight="1">
       <c r="A227" s="7" t="s">
         <v>208</v>
       </c>
@@ -4992,7 +4986,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="228" ht="15.75" hidden="1" customHeight="1">
+    <row r="228" ht="15.75" customHeight="1">
       <c r="A228" s="7"/>
       <c r="B228" s="5"/>
       <c r="C228" s="8" t="s">
@@ -5004,7 +4998,7 @@
       </c>
       <c r="E228" s="6"/>
     </row>
-    <row r="229" ht="15.75" hidden="1" customHeight="1">
+    <row r="229" ht="15.75" customHeight="1">
       <c r="A229" s="7" t="s">
         <v>68</v>
       </c>
@@ -5022,7 +5016,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="230" ht="15.75" hidden="1" customHeight="1">
+    <row r="230" ht="15.75" customHeight="1">
       <c r="A230" s="7" t="s">
         <v>70</v>
       </c>
@@ -5040,7 +5034,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="231" ht="15.75" hidden="1" customHeight="1">
+    <row r="231" ht="15.75" customHeight="1">
       <c r="A231" s="7" t="s">
         <v>72</v>
       </c>
@@ -5058,7 +5052,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="232" ht="15.75" hidden="1" customHeight="1">
+    <row r="232" ht="15.75" customHeight="1">
       <c r="A232" s="7" t="s">
         <v>210</v>
       </c>
@@ -5076,7 +5070,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="233" ht="15.75" hidden="1" customHeight="1">
+    <row r="233" ht="15.75" customHeight="1">
       <c r="A233" s="7" t="s">
         <v>41</v>
       </c>
@@ -5094,7 +5088,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="234" ht="15.75" hidden="1" customHeight="1">
+    <row r="234" ht="15.75" customHeight="1">
       <c r="A234" s="7" t="s">
         <v>43</v>
       </c>
@@ -5112,7 +5106,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="235" ht="15.75" hidden="1" customHeight="1">
+    <row r="235" ht="15.75" customHeight="1">
       <c r="A235" s="7" t="s">
         <v>45</v>
       </c>
@@ -5130,7 +5124,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="236" ht="15.75" hidden="1" customHeight="1">
+    <row r="236" ht="15.75" customHeight="1">
       <c r="A236" s="7" t="s">
         <v>47</v>
       </c>
@@ -5148,7 +5142,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="237" ht="15.75" hidden="1" customHeight="1">
+    <row r="237" ht="15.75" customHeight="1">
       <c r="A237" s="7" t="s">
         <v>49</v>
       </c>
@@ -5166,7 +5160,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="238" ht="15.75" hidden="1" customHeight="1">
+    <row r="238" ht="15.75" customHeight="1">
       <c r="A238" s="7" t="s">
         <v>51</v>
       </c>
@@ -5184,7 +5178,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="239" ht="15.75" hidden="1" customHeight="1">
+    <row r="239" ht="15.75" customHeight="1">
       <c r="A239" s="7" t="s">
         <v>53</v>
       </c>
@@ -5220,7 +5214,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="241" ht="15.75" hidden="1" customHeight="1">
+    <row r="241" ht="15.75" customHeight="1">
       <c r="A241" s="7" t="s">
         <v>78</v>
       </c>
@@ -5288,7 +5282,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="245" ht="15.75" hidden="1" customHeight="1">
+    <row r="245" ht="15.75" customHeight="1">
       <c r="A245" s="7" t="s">
         <v>70</v>
       </c>
@@ -5306,7 +5300,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="246" ht="15.75" hidden="1" customHeight="1">
+    <row r="246" ht="15.75" customHeight="1">
       <c r="A246" s="7" t="s">
         <v>72</v>
       </c>
@@ -5324,7 +5318,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="247" ht="15.75" hidden="1" customHeight="1">
+    <row r="247" ht="15.75" customHeight="1">
       <c r="A247" s="7" t="s">
         <v>80</v>
       </c>
@@ -5342,7 +5336,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="248" ht="15.75" hidden="1" customHeight="1">
+    <row r="248" ht="15.75" customHeight="1">
       <c r="A248" s="7" t="s">
         <v>60</v>
       </c>
@@ -5360,7 +5354,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="249" ht="15.75" hidden="1" customHeight="1">
+    <row r="249" ht="15.75" customHeight="1">
       <c r="A249" s="7" t="s">
         <v>62</v>
       </c>
@@ -5378,7 +5372,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="250" ht="15.75" hidden="1" customHeight="1">
+    <row r="250" ht="15.75" customHeight="1">
       <c r="A250" s="7" t="s">
         <v>64</v>
       </c>
@@ -5396,7 +5390,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="251" ht="15.75" hidden="1" customHeight="1">
+    <row r="251" ht="15.75" customHeight="1">
       <c r="A251" s="7" t="s">
         <v>220</v>
       </c>
@@ -5414,7 +5408,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="252" ht="15.75" hidden="1" customHeight="1">
+    <row r="252" ht="15.75" customHeight="1">
       <c r="A252" s="7"/>
       <c r="B252" s="5"/>
       <c r="C252" s="8" t="s">
@@ -5426,7 +5420,7 @@
       </c>
       <c r="E252" s="6"/>
     </row>
-    <row r="253" ht="15.75" hidden="1" customHeight="1">
+    <row r="253" ht="15.75" customHeight="1">
       <c r="A253" s="7" t="s">
         <v>111</v>
       </c>
@@ -5444,7 +5438,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="254" ht="15.75" hidden="1" customHeight="1">
+    <row r="254" ht="15.75" customHeight="1">
       <c r="A254" s="7" t="s">
         <v>112</v>
       </c>
@@ -5462,7 +5456,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="255" ht="15.75" hidden="1" customHeight="1">
+    <row r="255" ht="15.75" customHeight="1">
       <c r="A255" s="7" t="s">
         <v>87</v>
       </c>
@@ -5480,7 +5474,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="256" ht="15.75" hidden="1" customHeight="1">
+    <row r="256" ht="15.75" customHeight="1">
       <c r="A256" s="7" t="s">
         <v>222</v>
       </c>
@@ -5498,7 +5492,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="257" ht="15.75" hidden="1" customHeight="1">
+    <row r="257" ht="15.75" customHeight="1">
       <c r="A257" s="7"/>
       <c r="B257" s="5"/>
       <c r="C257" s="8" t="s">
@@ -5510,7 +5504,7 @@
       </c>
       <c r="E257" s="6"/>
     </row>
-    <row r="258" ht="15.75" hidden="1" customHeight="1">
+    <row r="258" ht="15.75" customHeight="1">
       <c r="A258" s="7" t="s">
         <v>111</v>
       </c>
@@ -5528,7 +5522,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="259" ht="15.75" hidden="1" customHeight="1">
+    <row r="259" ht="15.75" customHeight="1">
       <c r="A259" s="7" t="s">
         <v>112</v>
       </c>
@@ -5546,7 +5540,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="260" ht="15.75" hidden="1" customHeight="1">
+    <row r="260" ht="15.75" customHeight="1">
       <c r="A260" s="7" t="s">
         <v>87</v>
       </c>
@@ -6705,15 +6699,7 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <autoFilter ref="$A$2:$E$260">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="Optional"/>
-        <filter val="Required"/>
-        <filter val="Mandatory"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="$A$2:$E$260"/>
   <conditionalFormatting sqref="C3:C260">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="Select">
       <formula>NOT(ISERROR(SEARCH(("Select"),(C3))))</formula>
